--- a/PRACTICA1/Resultados_IA.xlsx
+++ b/PRACTICA1/Resultados_IA.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluc\Documents\Carpeta\NuevaCarpeta\Uni\Q6\IA\UPC-IA\PRACTICA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACE6C3-AE9B-440D-B9EC-7AD0A8251D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DDA77-1E7E-4188-AC88-8C5E636ADF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Experimento 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Experimento 3 Bis" sheetId="10" r:id="rId4"/>
-    <sheet name="Experimento 4" sheetId="4" r:id="rId5"/>
-    <sheet name="Experimento 5" sheetId="5" r:id="rId6"/>
-    <sheet name="Experimento 6" sheetId="6" r:id="rId7"/>
-    <sheet name="Experimento 7" sheetId="7" r:id="rId8"/>
-    <sheet name="Experimento 8" sheetId="8" r:id="rId9"/>
-    <sheet name="Experimento 9" sheetId="9" r:id="rId10"/>
+    <sheet name="Experimento 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Experimento 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Experimento 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Experimento 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Experimento 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Experimento 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Experimento 9 Bis" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Seed</t>
   </si>
@@ -197,14 +197,17 @@
     <t>RANDOM( Mitjana de 5)</t>
   </si>
   <si>
-    <t>Lamda = 100</t>
+    <t>N/M</t>
+  </si>
+  <si>
+    <t># Temps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,6 +238,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -242,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +344,38 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFBF9000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -470,11 +511,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,9 +583,27 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +973,7 @@
       <c r="E8" s="3">
         <v>11992</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -987,16 +1055,241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F73F4-4FE3-4791-9DF7-29A7BFDBE6A0}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="71" t="e">
+        <f>AVERAGE(B2:B11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="71" t="e">
+        <f>AVERAGE(C2:C11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="71" t="e">
+        <f>AVERAGE(D2:D11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="71" t="e">
+        <f>AVERAGE(G2:G11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="71" t="e">
+        <f>AVERAGE(H2:H11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="71" t="e">
+        <f>AVERAGE(I2:I11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="72"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="53"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1026,13 +1319,13 @@
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1240,7 +1533,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1422,198 +1715,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E07FE6-F603-443C-871E-9FF8D2732457}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>20646</v>
-      </c>
-      <c r="B2" s="18">
-        <v>10548</v>
-      </c>
-      <c r="C2" s="18">
-        <v>10576</v>
-      </c>
-      <c r="D2" s="18">
-        <v>10872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>145436</v>
-      </c>
-      <c r="B3" s="18">
-        <v>10702</v>
-      </c>
-      <c r="C3" s="18">
-        <v>10702</v>
-      </c>
-      <c r="D3" s="18">
-        <v>10718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>221802</v>
-      </c>
-      <c r="B4" s="18">
-        <v>10630</v>
-      </c>
-      <c r="C4" s="18">
-        <v>10630</v>
-      </c>
-      <c r="D4" s="18">
-        <v>10630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>62832</v>
-      </c>
-      <c r="B5" s="18">
-        <v>10327</v>
-      </c>
-      <c r="C5" s="18">
-        <v>10516</v>
-      </c>
-      <c r="D5" s="18">
-        <v>10430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>302004</v>
-      </c>
-      <c r="B6" s="18">
-        <v>10634</v>
-      </c>
-      <c r="C6" s="18">
-        <v>10634</v>
-      </c>
-      <c r="D6" s="18">
-        <v>10607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>201804</v>
-      </c>
-      <c r="B7" s="18">
-        <v>10622</v>
-      </c>
-      <c r="C7" s="18">
-        <v>10377</v>
-      </c>
-      <c r="D7" s="18">
-        <v>10781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>402402</v>
-      </c>
-      <c r="B8" s="18">
-        <v>10306</v>
-      </c>
-      <c r="C8" s="18">
-        <v>10298</v>
-      </c>
-      <c r="D8" s="18">
-        <v>10630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>41804</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9962</v>
-      </c>
-      <c r="C9" s="18">
-        <v>9962</v>
-      </c>
-      <c r="D9" s="18">
-        <v>9962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>102707224</v>
-      </c>
-      <c r="B10" s="18">
-        <v>10795</v>
-      </c>
-      <c r="C10" s="18">
-        <v>10777</v>
-      </c>
-      <c r="D10" s="18">
-        <v>10867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>975824</v>
-      </c>
-      <c r="B11" s="18">
-        <v>10369</v>
-      </c>
-      <c r="C11" s="18">
-        <v>10369</v>
-      </c>
-      <c r="D11" s="18">
-        <v>10429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22">
-        <f t="shared" ref="B12:D12" si="0">AVERAGE(B2:B11)</f>
-        <v>10489.5</v>
-      </c>
-      <c r="C12" s="22">
-        <f t="shared" si="0"/>
-        <v>10484.1</v>
-      </c>
-      <c r="D12" s="22">
-        <f t="shared" si="0"/>
-        <v>10592.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1805,16 +1906,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4156,20 +4262,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4191,17 +4297,11 @@
       <c r="G1" s="45">
         <v>700</v>
       </c>
-      <c r="H1" s="45">
-        <v>800</v>
-      </c>
-      <c r="I1" s="45">
-        <v>900</v>
-      </c>
-      <c r="J1" s="45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>22467</v>
       </c>
@@ -4223,11 +4323,11 @@
       <c r="G2" s="34">
         <v>2277597</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>158268</v>
       </c>
@@ -4249,11 +4349,11 @@
       <c r="G3" s="34">
         <v>2325629</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <v>241372</v>
       </c>
@@ -4275,11 +4375,11 @@
       <c r="G4" s="34">
         <v>2388098</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>68376</v>
       </c>
@@ -4301,11 +4401,11 @@
       <c r="G5" s="34">
         <v>2164062</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>328651</v>
       </c>
@@ -4327,11 +4427,11 @@
       <c r="G6" s="34">
         <v>2085839</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <v>219610</v>
       </c>
@@ -4353,11 +4453,11 @@
       <c r="G7" s="34">
         <v>2276727</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <v>437908</v>
       </c>
@@ -4379,11 +4479,11 @@
       <c r="G8" s="34">
         <v>2350895</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>45492</v>
       </c>
@@ -4405,11 +4505,11 @@
       <c r="G9" s="34">
         <v>2309991</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>111769626</v>
       </c>
@@ -4429,11 +4529,11 @@
         <v>1038688</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>1061926</v>
       </c>
@@ -4453,16 +4553,16 @@
         <v>1033860</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="38">
-        <f t="shared" ref="B12:J12" si="0">AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:F12" si="0">AVERAGE(B2:B11)</f>
         <v>9147.1</v>
       </c>
       <c r="C12" s="38">
@@ -4485,34 +4585,26 @@
         <f>AVERAGE(G2:G11)</f>
         <v>2272354.75</v>
       </c>
-      <c r="H12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4557,501 +4649,1411 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+        <v>134199</v>
+      </c>
+      <c r="B2" s="49">
+        <v>10617</v>
+      </c>
+      <c r="C2" s="49">
+        <v>10544</v>
+      </c>
+      <c r="D2" s="49">
+        <v>10809</v>
+      </c>
       <c r="F2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+        <v>134199</v>
+      </c>
+      <c r="G2" s="49">
+        <v>11857</v>
+      </c>
+      <c r="H2" s="49">
+        <v>26789</v>
+      </c>
+      <c r="I2" s="49">
+        <v>27071</v>
+      </c>
       <c r="K2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+        <v>134199</v>
+      </c>
+      <c r="L2" s="49">
+        <v>91</v>
+      </c>
+      <c r="M2" s="49">
+        <v>55</v>
+      </c>
+      <c r="N2" s="49">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+        <v>945334</v>
+      </c>
+      <c r="B3" s="49">
+        <v>10969</v>
+      </c>
+      <c r="C3" s="49">
+        <v>10673</v>
+      </c>
+      <c r="D3" s="49">
+        <v>10427</v>
+      </c>
       <c r="F3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+        <v>945334</v>
+      </c>
+      <c r="G3" s="49">
+        <v>11910</v>
+      </c>
+      <c r="H3" s="49">
+        <v>23207</v>
+      </c>
+      <c r="I3" s="49">
+        <v>25343</v>
+      </c>
       <c r="K3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+        <v>945334</v>
+      </c>
+      <c r="L3" s="49">
+        <v>90</v>
+      </c>
+      <c r="M3" s="49">
+        <v>56</v>
+      </c>
+      <c r="N3" s="49">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+        <v>1441713</v>
+      </c>
+      <c r="B4" s="49">
+        <v>11284</v>
+      </c>
+      <c r="C4" s="49">
+        <v>10510</v>
+      </c>
+      <c r="D4" s="49">
+        <v>10510</v>
+      </c>
       <c r="F4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+        <v>1441713</v>
+      </c>
+      <c r="G4" s="49">
+        <v>10257</v>
+      </c>
+      <c r="H4" s="49">
+        <v>24719</v>
+      </c>
+      <c r="I4" s="49">
+        <v>24605</v>
+      </c>
       <c r="K4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
+        <v>1441713</v>
+      </c>
+      <c r="L4" s="49">
+        <v>86</v>
+      </c>
+      <c r="M4" s="49">
+        <v>57</v>
+      </c>
+      <c r="N4" s="49">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+        <v>408408</v>
+      </c>
+      <c r="B5" s="49">
+        <v>10971</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10280</v>
+      </c>
+      <c r="D5" s="49">
+        <v>10244</v>
+      </c>
       <c r="F5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+        <v>408408</v>
+      </c>
+      <c r="G5" s="49">
+        <v>9775</v>
+      </c>
+      <c r="H5" s="49">
+        <v>25273</v>
+      </c>
+      <c r="I5" s="49">
+        <v>25770</v>
+      </c>
       <c r="K5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+        <v>408408</v>
+      </c>
+      <c r="L5" s="49">
+        <v>92</v>
+      </c>
+      <c r="M5" s="49">
+        <v>54</v>
+      </c>
+      <c r="N5" s="49">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+        <v>1963026</v>
+      </c>
+      <c r="B6" s="49">
+        <v>10761</v>
+      </c>
+      <c r="C6" s="49">
+        <v>10850</v>
+      </c>
+      <c r="D6" s="49">
+        <v>10850</v>
+      </c>
       <c r="F6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+        <v>1963026</v>
+      </c>
+      <c r="G6" s="49">
+        <v>9490</v>
+      </c>
+      <c r="H6" s="49">
+        <v>18516</v>
+      </c>
+      <c r="I6" s="49">
+        <v>18420</v>
+      </c>
       <c r="K6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+        <v>1963026</v>
+      </c>
+      <c r="L6" s="49">
+        <v>95</v>
+      </c>
+      <c r="M6" s="49">
+        <v>56</v>
+      </c>
+      <c r="N6" s="49">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+        <v>1311726</v>
+      </c>
+      <c r="B7" s="49">
+        <v>10680</v>
+      </c>
+      <c r="C7" s="49">
+        <v>10240</v>
+      </c>
+      <c r="D7" s="49">
+        <v>10284</v>
+      </c>
       <c r="F7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+        <v>1311726</v>
+      </c>
+      <c r="G7" s="49">
+        <v>9615</v>
+      </c>
+      <c r="H7" s="49">
+        <v>26515</v>
+      </c>
+      <c r="I7" s="49">
+        <v>27921</v>
+      </c>
       <c r="K7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+        <v>1311726</v>
+      </c>
+      <c r="L7" s="49">
+        <v>92</v>
+      </c>
+      <c r="M7" s="49">
+        <v>56</v>
+      </c>
+      <c r="N7" s="49">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+        <v>2615613</v>
+      </c>
+      <c r="B8" s="49">
+        <v>10571</v>
+      </c>
+      <c r="C8" s="49">
+        <v>10467</v>
+      </c>
+      <c r="D8" s="49">
+        <v>10497</v>
+      </c>
       <c r="F8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+        <v>2615613</v>
+      </c>
+      <c r="G8" s="49">
+        <v>11023</v>
+      </c>
+      <c r="H8" s="49">
+        <v>24021</v>
+      </c>
+      <c r="I8" s="49">
+        <v>22885</v>
+      </c>
       <c r="K8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+        <v>2615613</v>
+      </c>
+      <c r="L8" s="49">
+        <v>87</v>
+      </c>
+      <c r="M8" s="49">
+        <v>54</v>
+      </c>
+      <c r="N8" s="49">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+        <v>271726</v>
+      </c>
+      <c r="B9" s="49">
+        <v>11221</v>
+      </c>
+      <c r="C9" s="49">
+        <v>10925</v>
+      </c>
+      <c r="D9" s="49">
+        <v>10851</v>
+      </c>
       <c r="F9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+        <v>271726</v>
+      </c>
+      <c r="G9" s="49">
+        <v>10899</v>
+      </c>
+      <c r="H9" s="49">
+        <v>23870</v>
+      </c>
+      <c r="I9" s="49">
+        <v>25090</v>
+      </c>
       <c r="K9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+        <v>271726</v>
+      </c>
+      <c r="L9" s="49">
+        <v>90</v>
+      </c>
+      <c r="M9" s="49">
+        <v>56</v>
+      </c>
+      <c r="N9" s="49">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+        <v>667596956</v>
+      </c>
+      <c r="B10" s="49">
+        <v>10894</v>
+      </c>
+      <c r="C10" s="49">
+        <v>10369</v>
+      </c>
+      <c r="D10" s="49">
+        <v>10528</v>
+      </c>
       <c r="F10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+        <v>667596956</v>
+      </c>
+      <c r="G10" s="49">
+        <v>11129</v>
+      </c>
+      <c r="H10" s="49">
+        <v>27053</v>
+      </c>
+      <c r="I10" s="49">
+        <v>22544</v>
+      </c>
       <c r="K10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>667596956</v>
+      </c>
+      <c r="L10" s="49">
+        <v>92</v>
+      </c>
+      <c r="M10" s="49">
+        <v>52</v>
+      </c>
+      <c r="N10" s="49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+        <v>6342856</v>
+      </c>
+      <c r="B11" s="49">
+        <v>11077</v>
+      </c>
+      <c r="C11" s="49">
+        <v>10582</v>
+      </c>
+      <c r="D11" s="49">
+        <v>10088</v>
+      </c>
       <c r="F11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+        <v>6342856</v>
+      </c>
+      <c r="G11" s="49">
+        <v>8966</v>
+      </c>
+      <c r="H11" s="49">
+        <v>22286</v>
+      </c>
+      <c r="I11" s="49">
+        <v>28151</v>
+      </c>
       <c r="K11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6342856</v>
+      </c>
+      <c r="L11" s="49">
+        <v>91</v>
+      </c>
+      <c r="M11" s="49">
+        <v>55</v>
+      </c>
+      <c r="N11" s="49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="e">
-        <f t="shared" ref="B12:D12" si="0">AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="51" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12" s="51">
+        <f>AVERAGE(B2:B11)</f>
+        <v>10904.5</v>
+      </c>
+      <c r="C12" s="51">
+        <f>AVERAGE(C2:C11)</f>
+        <v>10544</v>
+      </c>
+      <c r="D12" s="51">
+        <f>AVERAGE(D2:D11)</f>
+        <v>10508.8</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="51" t="e">
-        <f t="shared" ref="G12:I12" si="1">AVERAGE(G2:G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G12" s="51">
+        <f>AVERAGE(G2:G11)</f>
+        <v>10492.1</v>
+      </c>
+      <c r="H12" s="51">
+        <f>AVERAGE(H2:H11)</f>
+        <v>24224.9</v>
+      </c>
+      <c r="I12" s="51">
+        <f>AVERAGE(I2:I11)</f>
+        <v>24780</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="51" t="e">
-        <f t="shared" ref="L12:N12" si="2">AVERAGE(L2:L11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="51" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="51" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+      <c r="L12" s="51">
+        <f>AVERAGE(L2:L11)</f>
+        <v>90.6</v>
+      </c>
+      <c r="M12" s="51">
+        <f>AVERAGE(M2:M11)</f>
+        <v>55.1</v>
+      </c>
+      <c r="N12" s="51">
+        <f>AVERAGE(N2:N11)</f>
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
+        <v>134199</v>
+      </c>
+      <c r="B2" s="49">
+        <v>9570</v>
+      </c>
+      <c r="C2" s="49">
+        <v>10662</v>
+      </c>
+      <c r="D2" s="49">
+        <v>10654</v>
+      </c>
+      <c r="F2" s="47">
+        <v>134199</v>
+      </c>
+      <c r="G2" s="49">
+        <v>2029</v>
+      </c>
+      <c r="H2" s="49">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="49">
+        <v>2188</v>
+      </c>
+      <c r="K2" s="47">
+        <v>134199</v>
+      </c>
+      <c r="L2" s="49">
+        <v>61</v>
+      </c>
+      <c r="M2" s="49">
+        <v>52</v>
+      </c>
+      <c r="N2" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
+        <v>945334</v>
+      </c>
+      <c r="B3" s="49">
+        <v>9406</v>
+      </c>
+      <c r="C3" s="49">
+        <v>10876</v>
+      </c>
+      <c r="D3" s="49">
+        <v>10301</v>
+      </c>
+      <c r="F3" s="47">
+        <v>945334</v>
+      </c>
+      <c r="G3" s="49">
+        <v>1792</v>
+      </c>
+      <c r="H3" s="49">
+        <v>2409</v>
+      </c>
+      <c r="I3" s="49">
+        <v>2158</v>
+      </c>
+      <c r="K3" s="47">
+        <v>945334</v>
+      </c>
+      <c r="L3" s="49">
+        <v>62</v>
+      </c>
+      <c r="M3" s="49">
+        <v>49</v>
+      </c>
+      <c r="N3" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="47">
+        <v>1441713</v>
+      </c>
+      <c r="B4" s="49">
+        <v>9567</v>
+      </c>
+      <c r="C4" s="49">
+        <v>10984</v>
+      </c>
+      <c r="D4" s="49">
+        <v>10899</v>
+      </c>
+      <c r="F4" s="47">
+        <v>1441713</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1835</v>
+      </c>
+      <c r="H4" s="49">
+        <v>2461</v>
+      </c>
+      <c r="I4" s="49">
+        <v>2141</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1441713</v>
+      </c>
+      <c r="L4" s="49">
+        <v>58</v>
+      </c>
+      <c r="M4" s="49">
+        <v>50</v>
+      </c>
+      <c r="N4" s="49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
+        <v>408408</v>
+      </c>
+      <c r="B5" s="49">
+        <v>9332</v>
+      </c>
+      <c r="C5" s="49">
+        <v>10440</v>
+      </c>
+      <c r="D5" s="49">
+        <v>9946</v>
+      </c>
+      <c r="F5" s="47">
+        <v>408408</v>
+      </c>
+      <c r="G5" s="49">
+        <v>1773</v>
+      </c>
+      <c r="H5" s="49">
+        <v>1989</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1951</v>
+      </c>
+      <c r="K5" s="47">
+        <v>408408</v>
+      </c>
+      <c r="L5" s="49">
+        <v>58</v>
+      </c>
+      <c r="M5" s="49">
+        <v>51</v>
+      </c>
+      <c r="N5" s="49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="47">
+        <v>1963026</v>
+      </c>
+      <c r="B6" s="49">
+        <v>9466</v>
+      </c>
+      <c r="C6" s="49">
+        <v>10373</v>
+      </c>
+      <c r="D6" s="49">
+        <v>10413</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1963026</v>
+      </c>
+      <c r="G6" s="49">
+        <v>1544</v>
+      </c>
+      <c r="H6" s="49">
+        <v>1915</v>
+      </c>
+      <c r="I6" s="49">
+        <v>1850</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1963026</v>
+      </c>
+      <c r="L6" s="49">
+        <v>62</v>
+      </c>
+      <c r="M6" s="49">
+        <v>50</v>
+      </c>
+      <c r="N6" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="47">
+        <v>1311726</v>
+      </c>
+      <c r="B7" s="49">
+        <v>9327</v>
+      </c>
+      <c r="C7" s="49">
+        <v>10656</v>
+      </c>
+      <c r="D7" s="49">
+        <v>10520</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1311726</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1596</v>
+      </c>
+      <c r="H7" s="49">
+        <v>2035</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1877</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1311726</v>
+      </c>
+      <c r="L7" s="49">
+        <v>60</v>
+      </c>
+      <c r="M7" s="49">
+        <v>49</v>
+      </c>
+      <c r="N7" s="49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="47">
+        <v>2615613</v>
+      </c>
+      <c r="B8" s="49">
+        <v>9361</v>
+      </c>
+      <c r="C8" s="49">
+        <v>10466</v>
+      </c>
+      <c r="D8" s="49">
+        <v>10619</v>
+      </c>
+      <c r="F8" s="47">
+        <v>2615613</v>
+      </c>
+      <c r="G8" s="49">
+        <v>1510</v>
+      </c>
+      <c r="H8" s="49">
+        <v>1938</v>
+      </c>
+      <c r="I8" s="49">
+        <v>1843</v>
+      </c>
+      <c r="K8" s="47">
+        <v>2615613</v>
+      </c>
+      <c r="L8" s="49">
+        <v>60</v>
+      </c>
+      <c r="M8" s="49">
+        <v>49</v>
+      </c>
+      <c r="N8" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="47">
+        <v>271726</v>
+      </c>
+      <c r="B9" s="49">
+        <v>9508</v>
+      </c>
+      <c r="C9" s="49">
+        <v>10575</v>
+      </c>
+      <c r="D9" s="49">
+        <v>11012</v>
+      </c>
+      <c r="F9" s="47">
+        <v>271726</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1592</v>
+      </c>
+      <c r="H9" s="49">
+        <v>1975</v>
+      </c>
+      <c r="I9" s="49">
+        <v>1999</v>
+      </c>
+      <c r="K9" s="47">
+        <v>271726</v>
+      </c>
+      <c r="L9" s="49">
+        <v>57</v>
+      </c>
+      <c r="M9" s="49">
+        <v>50</v>
+      </c>
+      <c r="N9" s="49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="47">
+        <v>667596956</v>
+      </c>
+      <c r="B10" s="49">
+        <v>9392</v>
+      </c>
+      <c r="C10" s="49">
+        <v>10862</v>
+      </c>
+      <c r="D10" s="49">
+        <v>10700</v>
+      </c>
+      <c r="F10" s="47">
+        <v>667596956</v>
+      </c>
+      <c r="G10" s="49">
+        <v>1747</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1922</v>
+      </c>
+      <c r="I10" s="49">
+        <v>1984</v>
+      </c>
+      <c r="K10" s="47">
+        <v>667596956</v>
+      </c>
+      <c r="L10" s="49">
+        <v>52</v>
+      </c>
+      <c r="M10" s="49">
+        <v>50</v>
+      </c>
+      <c r="N10" s="49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>6342856</v>
+      </c>
+      <c r="B11" s="49">
+        <v>9264</v>
+      </c>
+      <c r="C11" s="49">
+        <v>10643</v>
+      </c>
+      <c r="D11" s="49">
+        <v>10170</v>
+      </c>
+      <c r="F11" s="47">
+        <v>6342856</v>
+      </c>
+      <c r="G11" s="49">
+        <v>1530</v>
+      </c>
+      <c r="H11" s="49">
+        <v>1871</v>
+      </c>
+      <c r="I11" s="49">
+        <v>1948</v>
+      </c>
+      <c r="K11" s="47">
+        <v>6342856</v>
+      </c>
+      <c r="L11" s="49">
+        <v>61</v>
+      </c>
+      <c r="M11" s="49">
+        <v>51</v>
+      </c>
+      <c r="N11" s="49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="51">
+        <f>AVERAGE(B2:B11)</f>
+        <v>9419.2999999999993</v>
+      </c>
+      <c r="C12" s="51">
+        <f>AVERAGE(C2:C11)</f>
+        <v>10653.7</v>
+      </c>
+      <c r="D12" s="51">
+        <f>AVERAGE(D2:D11)</f>
+        <v>10523.4</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="51">
+        <f>AVERAGE(G2:G11)</f>
+        <v>1694.8</v>
+      </c>
+      <c r="H12" s="51">
+        <f>AVERAGE(H2:H11)</f>
+        <v>2054</v>
+      </c>
+      <c r="I12" s="51">
+        <f>AVERAGE(I2:I11)</f>
+        <v>1993.9</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="51">
+        <f>AVERAGE(L2:L11)</f>
+        <v>59.1</v>
+      </c>
+      <c r="M12" s="51">
+        <f>AVERAGE(M2:M11)</f>
+        <v>50.1</v>
+      </c>
+      <c r="N12" s="51">
+        <f>AVERAGE(N2:N11)</f>
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="E2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="I2" s="47">
-        <v>22467</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="E3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="I3" s="47">
-        <v>158268</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="E4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="I4" s="47">
-        <v>241372</v>
-      </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="E5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="I5" s="47">
-        <v>68376</v>
-      </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="E6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="I6" s="47">
-        <v>328651</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="E7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="I7" s="47">
-        <v>219610</v>
-      </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="E8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="I8" s="47">
-        <v>437908</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="E9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="I9" s="47">
-        <v>45492</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="E10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="I10" s="47">
-        <v>111769626</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="E11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="I11" s="47">
-        <v>1061926</v>
-      </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="59">
+        <v>200</v>
+      </c>
+      <c r="C1" s="59">
+        <v>250</v>
+      </c>
+      <c r="D1" s="59">
+        <v>300</v>
+      </c>
+      <c r="E1" s="59">
+        <v>350</v>
+      </c>
+      <c r="F1" s="59">
+        <v>400</v>
+      </c>
+      <c r="G1" s="59">
+        <v>450</v>
+      </c>
+      <c r="H1" s="64">
+        <v>500</v>
+      </c>
+      <c r="I1" s="64">
+        <v>550</v>
+      </c>
+      <c r="J1" s="64">
+        <v>600</v>
+      </c>
+      <c r="K1" s="64">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>32764</v>
+      </c>
+      <c r="B2" s="61">
+        <v>47</v>
+      </c>
+      <c r="C2" s="61">
+        <v>61</v>
+      </c>
+      <c r="D2" s="61">
+        <v>70</v>
+      </c>
+      <c r="E2" s="61">
+        <v>87</v>
+      </c>
+      <c r="F2" s="61">
+        <v>96</v>
+      </c>
+      <c r="G2" s="61">
+        <v>110</v>
+      </c>
+      <c r="H2" s="61">
+        <v>119</v>
+      </c>
+      <c r="I2" s="61">
+        <v>129</v>
+      </c>
+      <c r="J2" s="61">
+        <v>144</v>
+      </c>
+      <c r="K2" s="61">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>230800</v>
+      </c>
+      <c r="B3" s="61">
+        <v>49</v>
+      </c>
+      <c r="C3" s="61">
+        <v>60</v>
+      </c>
+      <c r="D3" s="61">
+        <v>75</v>
+      </c>
+      <c r="E3" s="61">
+        <v>85</v>
+      </c>
+      <c r="F3" s="61">
+        <v>98</v>
+      </c>
+      <c r="G3" s="61">
+        <v>107</v>
+      </c>
+      <c r="H3" s="61">
+        <v>121</v>
+      </c>
+      <c r="I3" s="61">
+        <v>131</v>
+      </c>
+      <c r="J3" s="61">
+        <v>141</v>
+      </c>
+      <c r="K3" s="61">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <v>351990</v>
+      </c>
+      <c r="B4" s="61">
+        <v>47</v>
+      </c>
+      <c r="C4" s="61">
+        <v>66</v>
+      </c>
+      <c r="D4" s="61">
+        <v>74</v>
+      </c>
+      <c r="E4" s="61">
+        <v>87</v>
+      </c>
+      <c r="F4" s="61">
+        <v>96</v>
+      </c>
+      <c r="G4" s="61">
+        <v>105</v>
+      </c>
+      <c r="H4" s="61">
+        <v>126</v>
+      </c>
+      <c r="I4" s="61">
+        <v>137</v>
+      </c>
+      <c r="J4" s="61">
+        <v>144</v>
+      </c>
+      <c r="K4" s="61">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <v>99711</v>
+      </c>
+      <c r="B5" s="61">
+        <v>50</v>
+      </c>
+      <c r="C5" s="61">
+        <v>60</v>
+      </c>
+      <c r="D5" s="61">
+        <v>70</v>
+      </c>
+      <c r="E5" s="61">
+        <v>80</v>
+      </c>
+      <c r="F5" s="61">
+        <v>96</v>
+      </c>
+      <c r="G5" s="61">
+        <v>106</v>
+      </c>
+      <c r="H5" s="61">
+        <v>118</v>
+      </c>
+      <c r="I5" s="61">
+        <v>131</v>
+      </c>
+      <c r="J5" s="61">
+        <v>144</v>
+      </c>
+      <c r="K5" s="61">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>479267</v>
+      </c>
+      <c r="B6" s="61">
+        <v>48</v>
+      </c>
+      <c r="C6" s="61">
+        <v>60</v>
+      </c>
+      <c r="D6" s="61">
+        <v>74</v>
+      </c>
+      <c r="E6" s="61">
+        <v>87</v>
+      </c>
+      <c r="F6" s="61">
+        <v>95</v>
+      </c>
+      <c r="G6" s="61">
+        <v>107</v>
+      </c>
+      <c r="H6" s="61">
+        <v>119</v>
+      </c>
+      <c r="I6" s="61">
+        <v>132</v>
+      </c>
+      <c r="J6" s="61">
+        <v>148</v>
+      </c>
+      <c r="K6" s="61">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>320254</v>
+      </c>
+      <c r="B7" s="61">
+        <v>48</v>
+      </c>
+      <c r="C7" s="61">
+        <v>61</v>
+      </c>
+      <c r="D7" s="61">
+        <v>72</v>
+      </c>
+      <c r="E7" s="61">
+        <v>84</v>
+      </c>
+      <c r="F7" s="61">
+        <v>92</v>
+      </c>
+      <c r="G7" s="61">
+        <v>110</v>
+      </c>
+      <c r="H7" s="61">
+        <v>120</v>
+      </c>
+      <c r="I7" s="61">
+        <v>128</v>
+      </c>
+      <c r="J7" s="61">
+        <v>138</v>
+      </c>
+      <c r="K7" s="61">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>638594</v>
+      </c>
+      <c r="B8" s="61">
+        <v>51</v>
+      </c>
+      <c r="C8" s="61">
+        <v>60</v>
+      </c>
+      <c r="D8" s="61">
+        <v>77</v>
+      </c>
+      <c r="E8" s="61">
+        <v>87</v>
+      </c>
+      <c r="F8" s="61">
+        <v>103</v>
+      </c>
+      <c r="G8" s="61">
+        <v>111</v>
+      </c>
+      <c r="H8" s="61">
+        <v>121</v>
+      </c>
+      <c r="I8" s="61">
+        <v>134</v>
+      </c>
+      <c r="J8" s="61">
+        <v>142</v>
+      </c>
+      <c r="K8" s="61">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>66341</v>
+      </c>
+      <c r="B9" s="61">
+        <v>46</v>
+      </c>
+      <c r="C9" s="61">
+        <v>61</v>
+      </c>
+      <c r="D9" s="61">
+        <v>71</v>
+      </c>
+      <c r="E9" s="61">
+        <v>82</v>
+      </c>
+      <c r="F9" s="61">
+        <v>99</v>
+      </c>
+      <c r="G9" s="61">
+        <v>107</v>
+      </c>
+      <c r="H9" s="61">
+        <v>120</v>
+      </c>
+      <c r="I9" s="61">
+        <v>131</v>
+      </c>
+      <c r="J9" s="61">
+        <v>141</v>
+      </c>
+      <c r="K9" s="61">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
+        <v>-23745809</v>
+      </c>
+      <c r="B10" s="61">
+        <v>50</v>
+      </c>
+      <c r="C10" s="61">
+        <v>61</v>
+      </c>
+      <c r="D10" s="61">
+        <v>74</v>
+      </c>
+      <c r="E10" s="61">
+        <v>86</v>
+      </c>
+      <c r="F10" s="61">
+        <v>95</v>
+      </c>
+      <c r="G10" s="61">
+        <v>102</v>
+      </c>
+      <c r="H10" s="61">
+        <v>121</v>
+      </c>
+      <c r="I10" s="61">
+        <v>131</v>
+      </c>
+      <c r="J10" s="61">
+        <v>139</v>
+      </c>
+      <c r="K10" s="61">
+        <v>153</v>
+      </c>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>1548590</v>
+      </c>
+      <c r="B11" s="61">
+        <v>48</v>
+      </c>
+      <c r="C11" s="61">
+        <v>63</v>
+      </c>
+      <c r="D11" s="61">
+        <v>75</v>
+      </c>
+      <c r="E11" s="61">
+        <v>89</v>
+      </c>
+      <c r="F11" s="61">
+        <v>100</v>
+      </c>
+      <c r="G11" s="61">
+        <v>107</v>
+      </c>
+      <c r="H11" s="61">
+        <v>118</v>
+      </c>
+      <c r="I11" s="61">
+        <v>132</v>
+      </c>
+      <c r="J11" s="61">
+        <v>148</v>
+      </c>
+      <c r="K11" s="61">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="e">
-        <f t="shared" ref="B12:C12" si="0">AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="51" t="e">
+      <c r="B12" s="62">
+        <f t="shared" ref="B12:F12" si="0">AVERAGE(B2:B11)</f>
+        <v>48.4</v>
+      </c>
+      <c r="C12" s="62">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="51" t="e">
-        <f t="shared" ref="F12:G12" si="1">AVERAGE(F2:F11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="51" t="e">
+        <v>61.3</v>
+      </c>
+      <c r="D12" s="62">
+        <f t="shared" si="0"/>
+        <v>73.2</v>
+      </c>
+      <c r="E12" s="63">
+        <f t="shared" si="0"/>
+        <v>85.4</v>
+      </c>
+      <c r="F12" s="63">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="G12" s="62">
+        <f>AVERAGE(G2:G11)</f>
+        <v>107.2</v>
+      </c>
+      <c r="H12" s="62">
+        <f>AVERAGE(H2:H11)</f>
+        <v>120.3</v>
+      </c>
+      <c r="I12" s="62">
+        <f>AVERAGE(I2:I11)</f>
+        <v>131.6</v>
+      </c>
+      <c r="J12" s="65">
+        <f>AVERAGE(J2:J11)</f>
+        <v>142.9</v>
+      </c>
+      <c r="K12" s="65">
+        <f>AVERAGE(K2:K11)</f>
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="67">
+        <f>B1/B12</f>
+        <v>4.1322314049586781</v>
+      </c>
+      <c r="C13" s="67">
+        <f t="shared" ref="C13:K13" si="1">C1/C12</f>
+        <v>4.0783034257748776</v>
+      </c>
+      <c r="D13" s="67">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="51" t="e">
-        <f t="shared" ref="J12:K12" si="2">AVERAGE(J2:J11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="51" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+        <v>4.0983606557377046</v>
+      </c>
+      <c r="E13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.0983606557377046</v>
+      </c>
+      <c r="F13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.1237113402061851</v>
+      </c>
+      <c r="G13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.1977611940298507</v>
+      </c>
+      <c r="H13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.1562759767248547</v>
+      </c>
+      <c r="I13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.179331306990882</v>
+      </c>
+      <c r="J13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.1987403778866339</v>
+      </c>
+      <c r="K13" s="67">
+        <f t="shared" si="1"/>
+        <v>4.1881443298969074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRACTICA1/Resultados_IA.xlsx
+++ b/PRACTICA1/Resultados_IA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluc\Documents\Carpeta\NuevaCarpeta\Uni\Q6\IA\UPC-IA\PRACTICA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DDA77-1E7E-4188-AC88-8C5E636ADF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DDA5F9-079E-4899-A51C-1EB553FBB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Experimento 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
     <sheet name="Experimento 4" sheetId="4" r:id="rId4"/>
     <sheet name="Experimento 5" sheetId="5" r:id="rId5"/>
     <sheet name="Experimento 6" sheetId="6" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Seed</t>
   </si>
@@ -56,13 +56,7 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Lamda = 0.5</t>
-  </si>
-  <si>
     <t>Lamda = 1</t>
-  </si>
-  <si>
-    <t>Lamda = 2</t>
   </si>
   <si>
     <t>Suma Distancia</t>
@@ -201,6 +195,15 @@
   </si>
   <si>
     <t># Temps</t>
+  </si>
+  <si>
+    <t>Lambda = 0.5</t>
+  </si>
+  <si>
+    <t>Lambda = 1</t>
+  </si>
+  <si>
+    <t>Lambda = 2</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,6 +588,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -822,10 +825,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,17 +845,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -973,7 +976,7 @@
       <c r="E8" s="3">
         <v>11992</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -1048,6 +1051,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1056,38 +1062,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F73F4-4FE3-4791-9DF7-29A7BFDBE6A0}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J1" s="72"/>
       <c r="K1" s="73"/>
@@ -1096,14 +1102,30 @@
       <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="59">
+        <v>32764</v>
+      </c>
+      <c r="B2" s="70">
+        <v>10030</v>
+      </c>
+      <c r="C2" s="70">
+        <v>48</v>
+      </c>
+      <c r="D2" s="70">
+        <v>2047</v>
+      </c>
+      <c r="F2" s="59">
+        <v>32764</v>
+      </c>
+      <c r="G2" s="70">
+        <v>10418</v>
+      </c>
+      <c r="H2" s="70">
+        <v>49</v>
+      </c>
+      <c r="I2" s="70">
+        <v>2291</v>
+      </c>
       <c r="J2" s="72"/>
       <c r="K2" s="58"/>
       <c r="L2" s="58"/>
@@ -1111,14 +1133,30 @@
       <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="A3" s="59">
+        <v>230800</v>
+      </c>
+      <c r="B3" s="70">
+        <v>10441</v>
+      </c>
+      <c r="C3" s="70">
+        <v>48</v>
+      </c>
+      <c r="D3" s="70">
+        <v>1842</v>
+      </c>
+      <c r="F3" s="59">
+        <v>230800</v>
+      </c>
+      <c r="G3" s="70">
+        <v>10934</v>
+      </c>
+      <c r="H3" s="70">
+        <v>50</v>
+      </c>
+      <c r="I3" s="70">
+        <v>2067</v>
+      </c>
       <c r="J3" s="72"/>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
@@ -1126,14 +1164,30 @@
       <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="A4" s="59">
+        <v>351990</v>
+      </c>
+      <c r="B4" s="70">
+        <v>10388</v>
+      </c>
+      <c r="C4" s="70">
+        <v>49</v>
+      </c>
+      <c r="D4" s="70">
+        <v>1792</v>
+      </c>
+      <c r="F4" s="59">
+        <v>351990</v>
+      </c>
+      <c r="G4" s="70">
+        <v>10228</v>
+      </c>
+      <c r="H4" s="70">
+        <v>47</v>
+      </c>
+      <c r="I4" s="70">
+        <v>1881</v>
+      </c>
       <c r="J4" s="72"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
@@ -1141,14 +1195,30 @@
       <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="A5" s="59">
+        <v>99711</v>
+      </c>
+      <c r="B5" s="70">
+        <v>9831</v>
+      </c>
+      <c r="C5" s="70">
+        <v>48</v>
+      </c>
+      <c r="D5" s="70">
+        <v>1720</v>
+      </c>
+      <c r="F5" s="59">
+        <v>99711</v>
+      </c>
+      <c r="G5" s="70">
+        <v>10123</v>
+      </c>
+      <c r="H5" s="70">
+        <v>49</v>
+      </c>
+      <c r="I5" s="70">
+        <v>1774</v>
+      </c>
       <c r="J5" s="72"/>
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
@@ -1156,14 +1226,30 @@
       <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="A6" s="59">
+        <v>479267</v>
+      </c>
+      <c r="B6" s="70">
+        <v>10628</v>
+      </c>
+      <c r="C6" s="70">
+        <v>47</v>
+      </c>
+      <c r="D6" s="70">
+        <v>2109</v>
+      </c>
+      <c r="F6" s="59">
+        <v>479267</v>
+      </c>
+      <c r="G6" s="70">
+        <v>10283</v>
+      </c>
+      <c r="H6" s="70">
+        <v>51</v>
+      </c>
+      <c r="I6" s="70">
+        <v>1772</v>
+      </c>
       <c r="J6" s="72"/>
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
@@ -1171,14 +1257,30 @@
       <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="A7" s="59">
+        <v>320254</v>
+      </c>
+      <c r="B7" s="70">
+        <v>10111</v>
+      </c>
+      <c r="C7" s="70">
+        <v>49</v>
+      </c>
+      <c r="D7" s="70">
+        <v>1637</v>
+      </c>
+      <c r="F7" s="59">
+        <v>320254</v>
+      </c>
+      <c r="G7" s="70">
+        <v>10586</v>
+      </c>
+      <c r="H7" s="70">
+        <v>49</v>
+      </c>
+      <c r="I7" s="70">
+        <v>1819</v>
+      </c>
       <c r="J7" s="72"/>
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
@@ -1186,14 +1288,30 @@
       <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="59">
+        <v>638594</v>
+      </c>
+      <c r="B8" s="70">
+        <v>10734</v>
+      </c>
+      <c r="C8" s="70">
+        <v>49</v>
+      </c>
+      <c r="D8" s="70">
+        <v>1835</v>
+      </c>
+      <c r="F8" s="59">
+        <v>638594</v>
+      </c>
+      <c r="G8" s="70">
+        <v>10961</v>
+      </c>
+      <c r="H8" s="70">
+        <v>53</v>
+      </c>
+      <c r="I8" s="70">
+        <v>1839</v>
+      </c>
       <c r="J8" s="72"/>
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
@@ -1201,14 +1319,30 @@
       <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="A9" s="59">
+        <v>66341</v>
+      </c>
+      <c r="B9" s="70">
+        <v>10047</v>
+      </c>
+      <c r="C9" s="70">
+        <v>48</v>
+      </c>
+      <c r="D9" s="70">
+        <v>1801</v>
+      </c>
+      <c r="F9" s="59">
+        <v>66341</v>
+      </c>
+      <c r="G9" s="70">
+        <v>10242</v>
+      </c>
+      <c r="H9" s="70">
+        <v>50</v>
+      </c>
+      <c r="I9" s="70">
+        <v>1932</v>
+      </c>
       <c r="J9" s="72"/>
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
@@ -1216,14 +1350,30 @@
       <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="A10" s="59">
+        <v>-23745809</v>
+      </c>
+      <c r="B10" s="70">
+        <v>10816</v>
+      </c>
+      <c r="C10" s="70">
+        <v>46</v>
+      </c>
+      <c r="D10" s="70">
+        <v>2359</v>
+      </c>
+      <c r="F10" s="59">
+        <v>-23745809</v>
+      </c>
+      <c r="G10" s="70">
+        <v>10165</v>
+      </c>
+      <c r="H10" s="70">
+        <v>50</v>
+      </c>
+      <c r="I10" s="70">
+        <v>1821</v>
+      </c>
       <c r="J10" s="72"/>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
@@ -1231,14 +1381,30 @@
       <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="A11" s="59">
+        <v>1548590</v>
+      </c>
+      <c r="B11" s="70">
+        <v>10325</v>
+      </c>
+      <c r="C11" s="70">
+        <v>46</v>
+      </c>
+      <c r="D11" s="70">
+        <v>1975</v>
+      </c>
+      <c r="F11" s="59">
+        <v>1548590</v>
+      </c>
+      <c r="G11" s="70">
+        <v>10114</v>
+      </c>
+      <c r="H11" s="70">
+        <v>46</v>
+      </c>
+      <c r="I11" s="70">
+        <v>2067</v>
+      </c>
       <c r="J11" s="72"/>
       <c r="K11" s="58"/>
       <c r="L11" s="58"/>
@@ -1249,32 +1415,32 @@
       <c r="A12" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="71" t="e">
+      <c r="B12" s="71">
         <f>AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="71" t="e">
+        <v>10335.1</v>
+      </c>
+      <c r="C12" s="71">
         <f>AVERAGE(C2:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="71" t="e">
+        <v>47.8</v>
+      </c>
+      <c r="D12" s="71">
         <f>AVERAGE(D2:D11)</f>
-        <v>#DIV/0!</v>
+        <v>1911.7</v>
       </c>
       <c r="F12" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="71" t="e">
+      <c r="G12" s="71">
         <f>AVERAGE(G2:G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="71" t="e">
+        <v>10405.4</v>
+      </c>
+      <c r="H12" s="71">
         <f>AVERAGE(H2:H11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="71" t="e">
+        <v>49.4</v>
+      </c>
+      <c r="I12" s="71">
         <f>AVERAGE(I2:I11)</f>
-        <v>#DIV/0!</v>
+        <v>1926.3</v>
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="58"/>
@@ -1283,11 +1449,19 @@
       <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="53"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="53"/>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="52"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="52"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,14 +1493,14 @@
       <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>49</v>
+      <c r="D1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1530,10 +1704,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1542,172 +1716,178 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>20646</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>10548</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>10576</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>10872</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>145436</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>10702</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>10702</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>10718</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>221802</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>10630</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>10630</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>10630</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>62832</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>10327</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>10516</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>10430</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>302004</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>10634</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>10634</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>10607</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>201804</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>10622</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>10377</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>10781</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>402402</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>10306</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>10298</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>10630</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>41804</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>9962</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>9962</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>9962</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>102707224</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>10795</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>10777</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>10867</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>975824</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>10369</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>10369</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>10429</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <f t="shared" ref="B12:D12" si="0">AVERAGE(B2:B11)</f>
         <v>10489.5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <f t="shared" si="0"/>
         <v>10484.1</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f t="shared" si="0"/>
         <v>10592.6</v>
       </c>
+    </row>
+    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="52"/>
+    </row>
+    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1729,176 +1909,176 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>5161</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>10752</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>10791</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>10813</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>36359</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>9926</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>10471</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>9904</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>55450</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>10738</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>11125</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>10692</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>15708</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>11133</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>11196</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>10979</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>75501</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>10759</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>10961</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>10617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>50451</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>10348</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>10725</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>10288</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>100600</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>10378</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>10903</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>10792</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>10451</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>10220</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>10330</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>10235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>25676806</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>10707</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>10986</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>10781</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>243956</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>11162</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>11724</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>11280</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <f t="shared" ref="B12:D12" si="0">AVERAGE(B2:B11)</f>
         <v>10612.3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>10921.2</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f t="shared" si="0"/>
         <v>10638.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="30" t="s">
-        <v>9</v>
+      <c r="D16" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1924,356 +2104,356 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="31">
+        <v>8</v>
+      </c>
+      <c r="B1" s="30">
         <v>5000</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1" s="30">
         <v>10000</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="31">
         <v>50000</v>
       </c>
-      <c r="E1" s="32">
+      <c r="E1" s="31">
         <v>75000</v>
       </c>
-      <c r="F1" s="32">
+      <c r="F1" s="31">
         <v>100000</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="31">
         <v>150000</v>
       </c>
-      <c r="H1" s="32">
+      <c r="H1" s="31">
         <v>200000</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>11</v>
+      <c r="I1" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>31092</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>12006</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>11273</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>10347</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>10248</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>10175</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>10202</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <v>10249</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <v>10907</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>218277</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>11975</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>11507</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>10633</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <v>10350</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>10232</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>10358</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <v>10185</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <v>10721</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>332826</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>11649</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>11155</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>10366</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>10193</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>10206</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>10054</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>9976</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>10955</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>94371</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>12074</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>11400</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>10513</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>10105</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>10342</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>10083</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <v>10027</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>10709</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>453129</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>11559</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>11209</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>10229</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>10066</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>9960</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>9984</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>10126</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>10435</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>302829</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>11875</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>11338</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>10646</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>10182</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>10348</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>10164</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <v>10214</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>10909</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>603726</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>12281</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>11725</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>10422</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>10536</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>10480</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>10608</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <v>10239</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>11052</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>62829</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>12168</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>11163</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>10568</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>10140</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>10339</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>10003</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <v>10270</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>10649</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>154060959</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>12154</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>11398</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>10627</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>10383</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>10279</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <v>10236</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <v>10187</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>10953</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>1463859</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>11258</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>10676</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>9712</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>9904</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>9615</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <v>9577</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <v>9633</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>10482</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <f t="shared" ref="B12:I12" si="0">AVERAGE(B2:B11)</f>
         <v>11899.9</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f t="shared" si="0"/>
         <v>11284.4</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>10406.299999999999</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
         <v>10210.700000000001</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>10197.6</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
         <v>10126.9</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>10110.6</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
         <v>10777.2</v>
       </c>
@@ -2282,502 +2462,502 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="G16" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="H16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="J16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="K16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="L16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="M16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>3482</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>13957</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>10675</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>10869</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>13625</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>10602</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>10557</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>13834</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>10723</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="33">
         <v>10341</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>14138</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <v>10734</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>10368</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="34">
         <v>24280</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>13323</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>9854</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>10010</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>13150</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>9902</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <v>10111</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>13461</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <v>10007</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="33">
         <v>9673</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>13859</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="33">
         <v>10157</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="33">
         <v>9924</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="A19" s="34">
         <v>37008</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>13381</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>10081</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>10258</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>13303</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>10394</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>10371</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <v>13552</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>10207</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="33">
         <v>10222</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>13981</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="33">
         <v>10567</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <v>10383</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="34">
         <v>10513</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>13899</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>10647</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>10542</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>13965</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>10851</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <v>10721</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <v>14122</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <v>10492</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="33">
         <v>10200</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <v>14465</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="33">
         <v>10394</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="33">
         <v>10460</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+      <c r="A21" s="34">
         <v>50375</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>13103</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <v>10476</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>10496</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>13132</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>10412</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>10347</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>13287</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>10339</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="33">
         <v>10091</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>13999</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="33">
         <v>10566</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <v>10151</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="34">
         <v>33675</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>13277</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>10400</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <v>10090</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>13404</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>10113</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>10130</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>13364</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>10233</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="33">
         <v>9812</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>13879</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="33">
         <v>10174</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="33">
         <v>9917</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="34">
         <v>67108</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>13573</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>10377</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>10475</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>13608</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <v>10390</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>10280</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <v>13481</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>10295</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="33">
         <v>9945</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <v>13947</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="33">
         <v>10450</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="33">
         <v>10208</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
+      <c r="A24" s="34">
         <v>7008</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <v>13667</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>10340</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>10263</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>13585</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>10479</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>10377</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>13826</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>10609</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="33">
         <v>9910</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <v>14391</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="33">
         <v>10542</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="33">
         <v>10318</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="34">
         <v>17117911</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <v>13302</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>10283</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>10313</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>13318</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <v>10369</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <v>10358</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <v>13248</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <v>10306</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="33">
         <v>10060</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <v>13774</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="33">
         <v>10252</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <v>10238</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>162678</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="33">
         <v>13667</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>10218</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <v>10383</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>13399</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <v>10480</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <v>10303</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
         <v>13555</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="33">
         <v>10267</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="33">
         <v>10080</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <v>14015</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="33">
         <v>10349</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="33">
         <v>10128</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <f t="shared" ref="B27:M27" si="1">AVERAGE(B17:B26)</f>
         <v>13514.9</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <f t="shared" si="1"/>
         <v>10335.1</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <f t="shared" si="1"/>
         <v>10369.9</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <f t="shared" si="1"/>
         <v>13448.9</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <f t="shared" si="1"/>
         <v>10399.200000000001</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <f t="shared" si="1"/>
         <v>10355.5</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <f t="shared" si="1"/>
         <v>13573</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="38">
         <f t="shared" si="1"/>
         <v>10347.799999999999</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="39">
         <f t="shared" si="1"/>
         <v>10033.4</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="40">
         <f t="shared" si="1"/>
         <v>14044.8</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="37">
         <f t="shared" si="1"/>
         <v>10418.5</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="37">
         <f t="shared" si="1"/>
         <v>10209.5</v>
       </c>
@@ -2786,1473 +2966,1473 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="H31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="I31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="J31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="K31" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="L31" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="M31" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>3482</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <v>10532</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>10645</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <v>10433</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <v>10710</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="33">
         <v>10220</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="33">
         <v>10403</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="33">
         <v>10604</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="33">
         <v>10413</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="33">
         <v>10762</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="33">
         <v>10596</v>
       </c>
-      <c r="L32" s="34">
+      <c r="L32" s="33">
         <v>10548</v>
       </c>
-      <c r="M32" s="34">
+      <c r="M32" s="33">
         <v>11085</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+      <c r="A33" s="34">
         <v>24280</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <v>10150</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <v>9867</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <v>9709</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>10181</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="33">
         <v>9808</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <v>9892</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="33">
         <v>9998</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <v>9695</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="33">
         <v>10172</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <v>9774</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="33">
         <v>9467</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="33">
         <v>10457</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>37008</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="33">
         <v>10319</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="33">
         <v>10095</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>9938</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <v>10288</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <v>10118</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <v>10114</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
         <v>10396</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="33">
         <v>10149</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="33">
         <v>10567</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="33">
         <v>10250</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="33">
         <v>10311</v>
       </c>
-      <c r="M34" s="34">
+      <c r="M34" s="33">
         <v>10750</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="34">
         <v>10513</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <v>10558</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="33">
         <v>10276</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="33">
         <v>10064</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <v>10651</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="33">
         <v>10305</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <v>10529</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="33">
         <v>10521</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <v>10254</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="33">
         <v>10795</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <v>10722</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="33">
         <v>10117</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="33">
         <v>11016</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>50375</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="33">
         <v>10383</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="33">
         <v>10154</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="33">
         <v>9992</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="33">
         <v>10456</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="33">
         <v>10057</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="33">
         <v>10314</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="33">
         <v>10387</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="33">
         <v>10037</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="33">
         <v>10458</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="33">
         <v>10254</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="33">
         <v>9946</v>
       </c>
-      <c r="M36" s="34">
+      <c r="M36" s="33">
         <v>10914</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="35">
+      <c r="A37" s="34">
         <v>33675</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="33">
         <v>10170</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="33">
         <v>10011</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="33">
         <v>9756</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <v>10079</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <v>9940</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="33">
         <v>10016</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="33">
         <v>10148</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <v>9888</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="33">
         <v>10555</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <v>10290</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="33">
         <v>9880</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <v>10877</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
+      <c r="A38" s="34">
         <v>67108</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="33">
         <v>10476</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>10099</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>9785</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="33">
         <v>10309</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="33">
         <v>9944</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="33">
         <v>10107</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="33">
         <v>10344</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="33">
         <v>9908</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="33">
         <v>10513</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="33">
         <v>10091</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="33">
         <v>9851</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="33">
         <v>10746</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="35">
+      <c r="A39" s="34">
         <v>7008</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="33">
         <v>10438</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="33">
         <v>10222</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <v>9996</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <v>10478</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <v>9975</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="33">
         <v>10230</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <v>10464</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="33">
         <v>9897</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="33">
         <v>10443</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="33">
         <v>10266</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="33">
         <v>9910</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="33">
         <v>10684</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="34">
         <v>17117911</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="33">
         <v>10325</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>10193</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>9971</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <v>10232</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>9955</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <v>10145</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="33">
         <v>10224</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="33">
         <v>9994</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="33">
         <v>10603</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="33">
         <v>10265</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="33">
         <v>9960</v>
       </c>
-      <c r="M40" s="34">
+      <c r="M40" s="33">
         <v>10807</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="35">
         <v>162678</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="33">
         <v>10158</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>10030</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="33">
         <v>9890</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <v>10181</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <v>10058</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="33">
         <v>10284</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="33">
         <v>10310</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="33">
         <v>9978</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="33">
         <v>10631</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="33">
         <v>10162</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="33">
         <v>9897</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="33">
         <v>10981</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="37">
         <f t="shared" ref="B42:M42" si="2">AVERAGE(B32:B41)</f>
         <v>10350.9</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="38">
         <f t="shared" si="2"/>
         <v>10159.200000000001</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="39">
         <f t="shared" si="2"/>
         <v>9953.4</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <f t="shared" si="2"/>
         <v>10356.5</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <f t="shared" si="2"/>
         <v>10038</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="37">
         <f t="shared" si="2"/>
         <v>10203.4</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="37">
         <f t="shared" si="2"/>
         <v>10339.6</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="38">
         <f t="shared" si="2"/>
         <v>10021.299999999999</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="38">
         <f t="shared" si="2"/>
         <v>10549.9</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42" s="37">
         <f t="shared" si="2"/>
         <v>10267</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42" s="37">
         <f t="shared" si="2"/>
         <v>9988.7000000000007</v>
       </c>
-      <c r="M42" s="38">
+      <c r="M42" s="37">
         <f t="shared" si="2"/>
         <v>10831.7</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="32">
+        <v>34</v>
+      </c>
+      <c r="B46" s="31">
         <v>50</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <v>75</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>100</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>150</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <v>200</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="31">
         <v>250</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="41">
         <v>300</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="41">
         <v>500</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="41">
         <v>750</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="41">
         <v>1000</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>1250</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="41">
         <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
+      <c r="A47" s="32">
         <v>7373</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="33">
         <v>9989</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>10129</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="33">
         <v>9994</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <v>9993</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="33">
         <v>10038</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="33">
         <v>9929</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="33">
         <v>9987</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="33">
         <v>9952</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="33">
         <v>10054</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="33">
         <v>9965</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="33">
         <v>10096</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="33">
         <v>10092</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="35">
+      <c r="A48" s="34">
         <v>51941</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="33">
         <v>9899</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="33">
         <v>9862</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="33">
         <v>9985</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="33">
         <v>9950</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="33">
         <v>9834</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="33">
         <v>9931</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="33">
         <v>9894</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="33">
         <v>9934</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="33">
         <v>9786</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="33">
         <v>9810</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L48" s="33">
         <v>9818</v>
       </c>
-      <c r="M48" s="34">
+      <c r="M48" s="33">
         <v>9876</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="35">
+      <c r="A49" s="34">
         <v>79215</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="33">
         <v>9870</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="33">
         <v>9855</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="33">
         <v>9829</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <v>9849</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="33">
         <v>9719</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="33">
         <v>9809</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="33">
         <v>9809</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="33">
         <v>9907</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="33">
         <v>9874</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="33">
         <v>9799</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="33">
         <v>9885</v>
       </c>
-      <c r="M49" s="34">
+      <c r="M49" s="33">
         <v>9840</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>22440</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="33">
         <v>9508</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <v>9701</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <v>9827</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <v>9693</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="33">
         <v>9662</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="33">
         <v>9546</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="33">
         <v>9706</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="33">
         <v>9713</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="33">
         <v>9522</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="33">
         <v>9617</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="33">
         <v>9582</v>
       </c>
-      <c r="M50" s="34">
+      <c r="M50" s="33">
         <v>9677</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="35">
+      <c r="A51" s="34">
         <v>107858</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="33">
         <v>10073</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="33">
         <v>9852</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="33">
         <v>9916</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="33">
         <v>9897</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="33">
         <v>9699</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="33">
         <v>9889</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="33">
         <v>9967</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="33">
         <v>9911</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="33">
         <v>9721</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="33">
         <v>9936</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51" s="33">
         <v>9956</v>
       </c>
-      <c r="M51" s="34">
+      <c r="M51" s="33">
         <v>9953</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="35">
+      <c r="A52" s="34">
         <v>72072</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="33">
         <v>9730</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="33">
         <v>9866</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="33">
         <v>9680</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="33">
         <v>9854</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="33">
         <v>9791</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="33">
         <v>9824</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="33">
         <v>10001</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="33">
         <v>9824</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="33">
         <v>9898</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="33">
         <v>9823</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="33">
         <v>9729</v>
       </c>
-      <c r="M52" s="34">
+      <c r="M52" s="33">
         <v>9702</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="35">
+      <c r="A53" s="34">
         <v>143715</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="33">
         <v>10127</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="33">
         <v>10103</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="33">
         <v>10196</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="33">
         <v>10043</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="33">
         <v>10064</v>
       </c>
-      <c r="G53" s="34">
+      <c r="G53" s="33">
         <v>10262</v>
       </c>
-      <c r="H53" s="34">
+      <c r="H53" s="33">
         <v>10267</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="33">
         <v>10167</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="33">
         <v>10150</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="33">
         <v>10175</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L53" s="33">
         <v>10162</v>
       </c>
-      <c r="M53" s="34">
+      <c r="M53" s="33">
         <v>10020</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="35">
+      <c r="A54" s="34">
         <v>14930</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="33">
         <v>9686</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="33">
         <v>9815</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="33">
         <v>9740</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="33">
         <v>9821</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="33">
         <v>9862</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="33">
         <v>9828</v>
       </c>
-      <c r="H54" s="34">
+      <c r="H54" s="33">
         <v>9780</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="33">
         <v>9651</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="33">
         <v>9773</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="33">
         <v>9672</v>
       </c>
-      <c r="L54" s="34">
+      <c r="L54" s="33">
         <v>9914</v>
       </c>
-      <c r="M54" s="34">
+      <c r="M54" s="33">
         <v>9687</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="35">
+      <c r="A55" s="34">
         <v>36681151</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="33">
         <v>10238</v>
       </c>
-      <c r="C55" s="34">
+      <c r="C55" s="33">
         <v>10119</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="33">
         <v>10296</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <v>10282</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="33">
         <v>10063</v>
       </c>
-      <c r="G55" s="34">
+      <c r="G55" s="33">
         <v>10147</v>
       </c>
-      <c r="H55" s="34">
+      <c r="H55" s="33">
         <v>10129</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="33">
         <v>10123</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="33">
         <v>10242</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="33">
         <v>10267</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="33">
         <v>10155</v>
       </c>
-      <c r="M55" s="34">
+      <c r="M55" s="33">
         <v>10436</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="36">
+      <c r="A56" s="35">
         <v>348508</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="33">
         <v>9642</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="33">
         <v>9629</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="33">
         <v>9480</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="33">
         <v>9483</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="33">
         <v>9501</v>
       </c>
-      <c r="G56" s="34">
+      <c r="G56" s="33">
         <v>9482</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="33">
         <v>9518</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="33">
         <v>9665</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="33">
         <v>9441</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="33">
         <v>9417</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="33">
         <v>9656</v>
       </c>
-      <c r="M56" s="34">
+      <c r="M56" s="33">
         <v>9293</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="37">
         <f t="shared" ref="B57:M57" si="3">AVERAGE(B47:B56)</f>
         <v>9876.2000000000007</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="38">
         <f t="shared" si="3"/>
         <v>9893.1</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="37">
         <f t="shared" si="3"/>
         <v>9894.2999999999993</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="40">
         <f t="shared" si="3"/>
         <v>9886.5</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F57" s="39">
         <f t="shared" si="3"/>
         <v>9823.2999999999993</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="37">
         <f t="shared" si="3"/>
         <v>9864.7000000000007</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="37">
         <f t="shared" si="3"/>
         <v>9905.7999999999993</v>
       </c>
-      <c r="I57" s="39">
+      <c r="I57" s="38">
         <f t="shared" si="3"/>
         <v>9884.7000000000007</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="38">
         <f t="shared" si="3"/>
         <v>9846.1</v>
       </c>
-      <c r="K57" s="38">
+      <c r="K57" s="37">
         <f t="shared" si="3"/>
         <v>9848.1</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="37">
         <f t="shared" si="3"/>
         <v>9895.2999999999993</v>
       </c>
-      <c r="M57" s="38">
+      <c r="M57" s="37">
         <f t="shared" si="3"/>
         <v>9857.6</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="31">
+        <v>8</v>
+      </c>
+      <c r="B61" s="30">
         <v>10000</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="30">
         <v>30000</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="30">
         <v>50000</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>75000</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <v>100000</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="31">
         <v>200000</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="31">
         <v>300000</v>
       </c>
-      <c r="I61" s="32">
+      <c r="I61" s="31">
         <v>500000</v>
       </c>
-      <c r="J61" s="32">
+      <c r="J61" s="31">
         <v>1000000</v>
       </c>
-      <c r="K61" s="32">
+      <c r="K61" s="31">
         <v>2000000</v>
       </c>
-      <c r="L61" s="32" t="s">
-        <v>11</v>
+      <c r="L61" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="33">
+      <c r="A62" s="32">
         <v>19717</v>
       </c>
-      <c r="B62" s="34">
+      <c r="B62" s="33">
         <v>11612</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="33">
         <v>10738</v>
       </c>
-      <c r="D62" s="34">
+      <c r="D62" s="33">
         <v>10208</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="33">
         <v>10003</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="33">
         <v>9763</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="33">
         <v>9528</v>
       </c>
-      <c r="H62" s="34">
+      <c r="H62" s="33">
         <v>9226</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="33">
         <v>9340</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="33">
         <v>9262</v>
       </c>
-      <c r="K62" s="34">
+      <c r="K62" s="33">
         <v>9246</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="33">
         <v>10411</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="35">
+      <c r="A63" s="34">
         <v>24516</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="33">
         <v>12229</v>
       </c>
-      <c r="C63" s="34">
+      <c r="C63" s="33">
         <v>11337</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="33">
         <v>10592</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <v>10078</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="33">
         <v>9750</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="33">
         <v>9607</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="33">
         <v>9553</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="33">
         <v>9567</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="33">
         <v>9590</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="33">
         <v>9583</v>
       </c>
-      <c r="L63" s="34">
+      <c r="L63" s="33">
         <v>11034</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="35">
+      <c r="A64" s="34">
         <v>27453</v>
       </c>
-      <c r="B64" s="34">
+      <c r="B64" s="33">
         <v>11988</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="33">
         <v>10850</v>
       </c>
-      <c r="D64" s="34">
+      <c r="D64" s="33">
         <v>10237</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="33">
         <v>9738</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="33">
         <v>9590</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="33">
         <v>9449</v>
       </c>
-      <c r="H64" s="34">
+      <c r="H64" s="33">
         <v>9351</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="33">
         <v>9509</v>
       </c>
-      <c r="J64" s="34">
+      <c r="J64" s="33">
         <v>9361</v>
       </c>
-      <c r="K64" s="34">
+      <c r="K64" s="33">
         <v>9312</v>
       </c>
-      <c r="L64" s="34">
+      <c r="L64" s="33">
         <v>10804</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="35">
+      <c r="A65" s="34">
         <v>21339</v>
       </c>
-      <c r="B65" s="34">
+      <c r="B65" s="33">
         <v>11990</v>
       </c>
-      <c r="C65" s="34">
+      <c r="C65" s="33">
         <v>10749</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D65" s="33">
         <v>10420</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <v>10064</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="33">
         <v>9610</v>
       </c>
-      <c r="G65" s="34">
+      <c r="G65" s="33">
         <v>9360</v>
       </c>
-      <c r="H65" s="34">
+      <c r="H65" s="33">
         <v>9340</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="33">
         <v>9370</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J65" s="33">
         <v>9323</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="33">
         <v>9446</v>
       </c>
-      <c r="L65" s="34">
+      <c r="L65" s="33">
         <v>11059</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="35">
+      <c r="A66" s="34">
         <v>30538</v>
       </c>
-      <c r="B66" s="34">
+      <c r="B66" s="33">
         <v>11732</v>
       </c>
-      <c r="C66" s="34">
+      <c r="C66" s="33">
         <v>10888</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D66" s="33">
         <v>10298</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="33">
         <v>9911</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="33">
         <v>9770</v>
       </c>
-      <c r="G66" s="34">
+      <c r="G66" s="33">
         <v>9477</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H66" s="33">
         <v>9328</v>
       </c>
-      <c r="I66" s="34">
+      <c r="I66" s="33">
         <v>9507</v>
       </c>
-      <c r="J66" s="34">
+      <c r="J66" s="33">
         <v>9293</v>
       </c>
-      <c r="K66" s="34">
+      <c r="K66" s="33">
         <v>9507</v>
       </c>
-      <c r="L66" s="34">
+      <c r="L66" s="33">
         <v>10649</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="35">
+      <c r="A67" s="34">
         <v>26684</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B67" s="33">
         <v>11884</v>
       </c>
-      <c r="C67" s="34">
+      <c r="C67" s="33">
         <v>11093</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="33">
         <v>10316</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="33">
         <v>9944</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="33">
         <v>9696</v>
       </c>
-      <c r="G67" s="34">
+      <c r="G67" s="33">
         <v>9478</v>
       </c>
-      <c r="H67" s="34">
+      <c r="H67" s="33">
         <v>9457</v>
       </c>
-      <c r="I67" s="34">
+      <c r="I67" s="33">
         <v>9407</v>
       </c>
-      <c r="J67" s="34">
+      <c r="J67" s="33">
         <v>9452</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="33">
         <v>9409</v>
       </c>
-      <c r="L67" s="34">
+      <c r="L67" s="33">
         <v>10945</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="35">
+      <c r="A68" s="34">
         <v>34400</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="33">
         <v>11654</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="33">
         <v>10863</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="33">
         <v>10335</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="33">
         <v>10136</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="33">
         <v>9798</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="33">
         <v>9265</v>
       </c>
-      <c r="H68" s="34">
+      <c r="H68" s="33">
         <v>9289</v>
       </c>
-      <c r="I68" s="34">
+      <c r="I68" s="33">
         <v>9485</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J68" s="33">
         <v>9381</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="33">
         <v>9430</v>
       </c>
-      <c r="L68" s="34">
+      <c r="L68" s="33">
         <v>10481</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="35">
+      <c r="A69" s="34">
         <v>20530</v>
       </c>
-      <c r="B69" s="34">
+      <c r="B69" s="33">
         <v>11406</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="33">
         <v>10512</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="33">
         <v>10216</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="33">
         <v>9733</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="33">
         <v>9496</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="33">
         <v>9017</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="33">
         <v>9136</v>
       </c>
-      <c r="I69" s="34">
+      <c r="I69" s="33">
         <v>8921</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J69" s="33">
         <v>8986</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="33">
         <v>8962</v>
       </c>
-      <c r="L69" s="34">
+      <c r="L69" s="33">
         <v>10303</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="35">
+      <c r="A70" s="34">
         <v>3969200</v>
       </c>
-      <c r="B70" s="34">
+      <c r="B70" s="33">
         <v>12055</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="33">
         <v>11057</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="33">
         <v>10673</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="33">
         <v>10105</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="33">
         <v>9910</v>
       </c>
-      <c r="G70" s="34">
+      <c r="G70" s="33">
         <v>9662</v>
       </c>
-      <c r="H70" s="34">
+      <c r="H70" s="33">
         <v>9563</v>
       </c>
-      <c r="I70" s="34">
+      <c r="I70" s="33">
         <v>9600</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J70" s="33">
         <v>9563</v>
       </c>
-      <c r="K70" s="34">
+      <c r="K70" s="33">
         <v>9739</v>
       </c>
-      <c r="L70" s="34">
+      <c r="L70" s="33">
         <v>11010</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="35">
         <v>56454</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <v>11493</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="33">
         <v>10463</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="33">
         <v>9758</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="33">
         <v>9476</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="33">
         <v>9345</v>
       </c>
-      <c r="G71" s="34">
+      <c r="G71" s="33">
         <v>8876</v>
       </c>
-      <c r="H71" s="34">
+      <c r="H71" s="33">
         <v>8895</v>
       </c>
-      <c r="I71" s="34">
+      <c r="I71" s="33">
         <v>8804</v>
       </c>
-      <c r="J71" s="34">
+      <c r="J71" s="33">
         <v>8812</v>
       </c>
-      <c r="K71" s="34">
+      <c r="K71" s="33">
         <v>8932</v>
       </c>
-      <c r="L71" s="34">
+      <c r="L71" s="33">
         <v>10242</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="37">
         <f t="shared" ref="B72:L72" si="4">AVERAGE(B62:B71)</f>
         <v>11804.3</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="37">
         <f t="shared" si="4"/>
         <v>10855</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="37">
         <f t="shared" si="4"/>
         <v>10305.299999999999</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="40">
         <f t="shared" si="4"/>
         <v>9918.7999999999993</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="40">
         <f t="shared" si="4"/>
         <v>9672.7999999999993</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <f t="shared" si="4"/>
         <v>9371.9</v>
       </c>
-      <c r="H72" s="43">
+      <c r="H72" s="42">
         <f t="shared" si="4"/>
         <v>9313.7999999999993</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="43">
         <f t="shared" si="4"/>
         <v>9351</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="39">
         <f t="shared" si="4"/>
         <v>9302.2999999999993</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="40">
         <f t="shared" si="4"/>
         <v>9356.6</v>
       </c>
-      <c r="L72" s="38">
+      <c r="L72" s="37">
         <f t="shared" si="4"/>
         <v>10693.8</v>
       </c>
@@ -4277,24 +4457,24 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="45">
+        <v>35</v>
+      </c>
+      <c r="B1" s="44">
         <v>200</v>
       </c>
-      <c r="C1" s="45">
+      <c r="C1" s="44">
         <v>300</v>
       </c>
-      <c r="D1" s="45">
+      <c r="D1" s="44">
         <v>400</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="44">
         <v>500</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="44">
         <v>600</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="44">
         <v>700</v>
       </c>
       <c r="I1" s="58"/>
@@ -4302,25 +4482,25 @@
       <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>22467</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>8513</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>54690</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>194217</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>503626</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>971524</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>2277597</v>
       </c>
       <c r="I2" s="57"/>
@@ -4328,25 +4508,25 @@
       <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>158268</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>11482</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>45552</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>224399</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <v>543594</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>1034920</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>2325629</v>
       </c>
       <c r="I3" s="57"/>
@@ -4354,25 +4534,25 @@
       <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>241372</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>8150</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>43471</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>190554</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>476517</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>1084058</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>2388098</v>
       </c>
       <c r="I4" s="57"/>
@@ -4380,25 +4560,25 @@
       <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>68376</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>11151</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>42288</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>180468</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>513088</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>1066595</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>2164062</v>
       </c>
       <c r="I5" s="57"/>
@@ -4406,25 +4586,25 @@
       <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>328651</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>9084</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>53715</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>168132</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>403767</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>976829</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>2085839</v>
       </c>
       <c r="I6" s="57"/>
@@ -4432,25 +4612,25 @@
       <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>219610</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>7716</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>50640</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>193369</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>527596</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>1079850</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>2276727</v>
       </c>
       <c r="I7" s="57"/>
@@ -4458,25 +4638,25 @@
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>437908</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>7904</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>50208</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>202655</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>436268</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>1018528</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>2350895</v>
       </c>
       <c r="I8" s="57"/>
@@ -4484,25 +4664,25 @@
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>45492</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>9794</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>52966</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>173186</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>504235</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>1077354</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>2309991</v>
       </c>
       <c r="I9" s="57"/>
@@ -4510,78 +4690,78 @@
       <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>111769626</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>8519</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>53081</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>210948</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>441979</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>1038688</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>1061926</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>9158</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>55934</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>200314</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>464568</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>1033860</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="33"/>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <f t="shared" ref="B12:F12" si="0">AVERAGE(B2:B11)</f>
         <v>9147.1</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <f t="shared" si="0"/>
         <v>50254.5</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>193824.2</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <f t="shared" si="0"/>
         <v>481523.8</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>1038220.6</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <f>AVERAGE(G2:G11)</f>
         <v>2272354.75</v>
       </c>
@@ -4611,465 +4791,465 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="G1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="47" t="s">
+      <c r="L1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <v>134199</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>10617</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>10544</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>10809</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>134199</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <v>11857</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="48">
         <v>26789</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>27071</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>134199</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="48">
         <v>91</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="48">
         <v>55</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="48">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="46">
         <v>945334</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>10969</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>10673</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>10427</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>945334</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <v>11910</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>23207</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <v>25343</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>945334</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="48">
         <v>90</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <v>56</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="48">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>1441713</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>11284</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>10510</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>10510</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1441713</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <v>10257</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>24719</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <v>24605</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <v>1441713</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>86</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>57</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>408408</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>10971</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>10280</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>10244</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>408408</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <v>9775</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>25273</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>25770</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <v>408408</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>92</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <v>54</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="48">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="46">
         <v>1963026</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>10761</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>10850</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>10850</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>1963026</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>9490</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>18516</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>18420</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="46">
         <v>1963026</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>95</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>56</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="A7" s="46">
         <v>1311726</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>10680</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>10240</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>10284</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>1311726</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>9615</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>26515</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <v>27921</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="46">
         <v>1311726</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>92</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="48">
         <v>56</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="48">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="A8" s="46">
         <v>2615613</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>10571</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>10467</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>10497</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>2615613</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <v>11023</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>24021</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="48">
         <v>22885</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="46">
         <v>2615613</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <v>87</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="48">
         <v>54</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="48">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>271726</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>11221</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>10925</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>10851</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>271726</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>10899</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>23870</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>25090</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="46">
         <v>271726</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>90</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>56</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="A10" s="46">
         <v>667596956</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>10894</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>10369</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>10528</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>667596956</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <v>11129</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>27053</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="48">
         <v>22544</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="46">
         <v>667596956</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="48">
         <v>92</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="48">
         <v>52</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="48">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="46">
         <v>6342856</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>11077</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>10582</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>10088</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>6342856</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <v>8966</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="48">
         <v>22286</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="48">
         <v>28151</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="46">
         <v>6342856</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="48">
         <v>91</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="48">
         <v>55</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="48">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <f>AVERAGE(B2:B11)</f>
         <v>10904.5</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <f>AVERAGE(C2:C11)</f>
         <v>10544</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <f>AVERAGE(D2:D11)</f>
         <v>10508.8</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>AVERAGE(G2:G11)</f>
         <v>10492.1</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <f>AVERAGE(H2:H11)</f>
         <v>24224.9</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <f>AVERAGE(I2:I11)</f>
         <v>24780</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="50">
         <f>AVERAGE(L2:L11)</f>
         <v>90.6</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <f>AVERAGE(M2:M11)</f>
         <v>55.1</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="50">
         <f>AVERAGE(N2:N11)</f>
         <v>54.7</v>
       </c>
@@ -5087,7 +5267,7 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N12"/>
     </sheetView>
   </sheetViews>
@@ -5095,465 +5275,465 @@
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="G1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="47" t="s">
+      <c r="L1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <v>134199</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>9570</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>10662</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>10654</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>134199</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <v>2029</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="48">
         <v>2025</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>2188</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="46">
         <v>134199</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="48">
         <v>61</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="48">
         <v>52</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="46">
         <v>945334</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>9406</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>10876</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>10301</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>945334</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <v>1792</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>2409</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <v>2158</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>945334</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="48">
         <v>62</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <v>49</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>1441713</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>9567</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>10984</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>10899</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>1441713</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <v>1835</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>2461</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <v>2141</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <v>1441713</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>58</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>50</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>408408</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>9332</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>10440</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>9946</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="46">
         <v>408408</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <v>1773</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>1989</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>1951</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <v>408408</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>58</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <v>51</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="48">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="46">
         <v>1963026</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>9466</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>10373</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>10413</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>1963026</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>1544</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>1915</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>1850</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="46">
         <v>1963026</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>62</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>50</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="A7" s="46">
         <v>1311726</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>9327</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>10656</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>10520</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>1311726</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>1596</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>2035</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <v>1877</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="46">
         <v>1311726</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <v>60</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="48">
         <v>49</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="48">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="A8" s="46">
         <v>2615613</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>9361</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>10466</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>10619</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>2615613</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <v>1510</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>1938</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="48">
         <v>1843</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="46">
         <v>2615613</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <v>60</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="48">
         <v>49</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>271726</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>9508</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>10575</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>11012</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>271726</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>1592</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>1975</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>1999</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="46">
         <v>271726</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>57</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>50</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="48">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
+      <c r="A10" s="46">
         <v>667596956</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>9392</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>10862</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>10700</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>667596956</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <v>1747</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>1922</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="48">
         <v>1984</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="46">
         <v>667596956</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="48">
         <v>52</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="48">
         <v>50</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="48">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="46">
         <v>6342856</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>9264</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>10643</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>10170</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>6342856</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <v>1530</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="48">
         <v>1871</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="48">
         <v>1948</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="46">
         <v>6342856</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="48">
         <v>61</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="48">
         <v>51</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="48">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <f>AVERAGE(B2:B11)</f>
         <v>9419.2999999999993</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <f>AVERAGE(C2:C11)</f>
         <v>10653.7</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <f>AVERAGE(D2:D11)</f>
         <v>10523.4</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>AVERAGE(G2:G11)</f>
         <v>1694.8</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <f>AVERAGE(H2:H11)</f>
         <v>2054</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <f>AVERAGE(I2:I11)</f>
         <v>1993.9</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="50">
         <f>AVERAGE(L2:L11)</f>
         <v>59.1</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <f>AVERAGE(M2:M11)</f>
         <v>50.1</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="50">
         <f>AVERAGE(N2:N11)</f>
         <v>50.2</v>
       </c>
@@ -5572,14 +5752,14 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="59">
         <v>200</v>
@@ -5926,7 +6106,7 @@
       <c r="K10" s="61">
         <v>153</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
@@ -6010,7 +6190,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="67">
         <f>B1/B12</f>

--- a/PRACTICA1/Resultados_IA.xlsx
+++ b/PRACTICA1/Resultados_IA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluc\Documents\Carpeta\NuevaCarpeta\Uni\Q6\IA\UPC-IA\PRACTICA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B71459D-0C65-45EB-8A48-3CFEB92ED39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF4F21-9C48-4608-A216-E12AD398A166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1353,9 @@
       <c r="F10" s="33">
         <v>1038688</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="33">
+        <v>2207761</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1377,7 +1379,9 @@
       <c r="F11" s="33">
         <v>1033860</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="33">
+        <v>2247471</v>
+      </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -1408,7 +1412,7 @@
       </c>
       <c r="G12" s="37">
         <f>AVERAGE(G2:G11)</f>
-        <v>2272354.75</v>
+        <v>2263407</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2574,9 +2578,7 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4557,13 +4559,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CF5423-FDD1-45B6-BD66-BB617997E646}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">

--- a/PRACTICA1/Resultados_IA.xlsx
+++ b/PRACTICA1/Resultados_IA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluc\Documents\Carpeta\NuevaCarpeta\Uni\Q6\IA\UPC-IA\PRACTICA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF4F21-9C48-4608-A216-E12AD398A166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B15971-7814-43EC-A591-8757A9B3DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,10 @@
     <sheet name="Experiment 8 Temps" sheetId="18" r:id="rId15"/>
     <sheet name="Experiment 8 Cotxes" sheetId="19" r:id="rId16"/>
     <sheet name="Experiment 9" sheetId="9" r:id="rId17"/>
-    <sheet name="Experiment 9_2" sheetId="11" r:id="rId18"/>
-    <sheet name="Experiment 9_3" sheetId="20" r:id="rId19"/>
+    <sheet name="Experiment 9_1" sheetId="21" r:id="rId18"/>
+    <sheet name="Experiment 9_t" sheetId="22" r:id="rId19"/>
+    <sheet name="Experiment 9_2" sheetId="11" r:id="rId20"/>
+    <sheet name="Experiment 9_3" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Seed</t>
   </si>
@@ -210,6 +212,12 @@
   </si>
   <si>
     <t>Seed / Persones</t>
+  </si>
+  <si>
+    <t>Dist/N</t>
+  </si>
+  <si>
+    <t>Temps/N</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1103,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -1613,6 +1621,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="51"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2578,7 +2589,9 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3068,442 +3081,986 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F73F4-4FE3-4791-9DF7-29A7BFDBE6A0}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34064F-B9CE-460C-8C7A-C1573E87C10B}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="56">
+        <v>200</v>
+      </c>
+      <c r="C1" s="56">
+        <v>250</v>
+      </c>
+      <c r="D1" s="56">
+        <v>300</v>
+      </c>
+      <c r="E1" s="56">
+        <v>350</v>
+      </c>
+      <c r="F1" s="56">
+        <v>400</v>
+      </c>
+      <c r="G1" s="56">
+        <v>450</v>
+      </c>
+      <c r="H1" s="61">
+        <v>500</v>
+      </c>
+      <c r="I1" s="61">
+        <v>550</v>
+      </c>
+      <c r="J1" s="61">
+        <v>600</v>
+      </c>
+      <c r="K1" s="61">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>32764</v>
       </c>
-      <c r="B2" s="67">
-        <v>10030</v>
-      </c>
-      <c r="C2" s="67">
-        <v>48</v>
-      </c>
-      <c r="D2" s="67">
-        <v>2047</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="58">
+        <v>10579</v>
+      </c>
+      <c r="C2" s="58">
+        <v>12824</v>
+      </c>
+      <c r="D2" s="58">
+        <v>14738</v>
+      </c>
+      <c r="E2" s="58">
+        <v>17676</v>
+      </c>
+      <c r="F2" s="58">
+        <v>20261</v>
+      </c>
+      <c r="G2" s="58">
+        <v>22524</v>
+      </c>
+      <c r="H2" s="58">
+        <v>24731</v>
+      </c>
+      <c r="I2" s="58">
+        <v>27492</v>
+      </c>
+      <c r="J2" s="58">
+        <v>28945</v>
+      </c>
+      <c r="K2" s="58">
+        <v>31219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <v>230800</v>
       </c>
-      <c r="B3" s="67">
-        <v>10441</v>
-      </c>
-      <c r="C3" s="67">
-        <v>48</v>
-      </c>
-      <c r="D3" s="67">
-        <v>1842</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="58">
+        <v>11272</v>
+      </c>
+      <c r="C3" s="58">
+        <v>12929</v>
+      </c>
+      <c r="D3" s="58">
+        <v>15207</v>
+      </c>
+      <c r="E3" s="58">
+        <v>17768</v>
+      </c>
+      <c r="F3" s="58">
+        <v>19720</v>
+      </c>
+      <c r="G3" s="58">
+        <v>22479</v>
+      </c>
+      <c r="H3" s="58">
+        <v>23850</v>
+      </c>
+      <c r="I3" s="58">
+        <v>27317</v>
+      </c>
+      <c r="J3" s="58">
+        <v>29478</v>
+      </c>
+      <c r="K3" s="58">
+        <v>31097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>351990</v>
       </c>
-      <c r="B4" s="67">
-        <v>10388</v>
-      </c>
-      <c r="C4" s="67">
-        <v>49</v>
-      </c>
-      <c r="D4" s="67">
-        <v>1792</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="58">
+        <v>10412</v>
+      </c>
+      <c r="C4" s="58">
+        <v>13908</v>
+      </c>
+      <c r="D4" s="58">
+        <v>15556</v>
+      </c>
+      <c r="E4" s="58">
+        <v>17886</v>
+      </c>
+      <c r="F4" s="58">
+        <v>19052</v>
+      </c>
+      <c r="G4" s="58">
+        <v>22026</v>
+      </c>
+      <c r="H4" s="58">
+        <v>24174</v>
+      </c>
+      <c r="I4" s="58">
+        <v>27466</v>
+      </c>
+      <c r="J4" s="58">
+        <v>28103</v>
+      </c>
+      <c r="K4" s="58">
+        <v>31333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>99711</v>
       </c>
-      <c r="B5" s="67">
-        <v>9831</v>
-      </c>
-      <c r="C5" s="67">
-        <v>48</v>
-      </c>
-      <c r="D5" s="67">
-        <v>1720</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="58">
+        <v>10410</v>
+      </c>
+      <c r="C5" s="58">
+        <v>13241</v>
+      </c>
+      <c r="D5" s="58">
+        <v>15059</v>
+      </c>
+      <c r="E5" s="58">
+        <v>17186</v>
+      </c>
+      <c r="F5" s="58">
+        <v>19885</v>
+      </c>
+      <c r="G5" s="58">
+        <v>22174</v>
+      </c>
+      <c r="H5" s="58">
+        <v>23952</v>
+      </c>
+      <c r="I5" s="58">
+        <v>26204</v>
+      </c>
+      <c r="J5" s="58">
+        <v>29140</v>
+      </c>
+      <c r="K5" s="58">
+        <v>32002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>479267</v>
       </c>
-      <c r="B6" s="67">
-        <v>10628</v>
-      </c>
-      <c r="C6" s="67">
-        <v>47</v>
-      </c>
-      <c r="D6" s="67">
-        <v>2109</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="58">
+        <v>10702</v>
+      </c>
+      <c r="C6" s="58">
+        <v>13114</v>
+      </c>
+      <c r="D6" s="58">
+        <v>15527</v>
+      </c>
+      <c r="E6" s="58">
+        <v>17519</v>
+      </c>
+      <c r="F6" s="58">
+        <v>20040</v>
+      </c>
+      <c r="G6" s="58">
+        <v>21910</v>
+      </c>
+      <c r="H6" s="58">
+        <v>24183</v>
+      </c>
+      <c r="I6" s="58">
+        <v>25967</v>
+      </c>
+      <c r="J6" s="58">
+        <v>29181</v>
+      </c>
+      <c r="K6" s="58">
+        <v>30346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <v>320254</v>
       </c>
-      <c r="B7" s="67">
-        <v>10111</v>
-      </c>
-      <c r="C7" s="67">
-        <v>49</v>
-      </c>
-      <c r="D7" s="67">
-        <v>1637</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
+        <v>10127</v>
+      </c>
+      <c r="C7" s="58">
+        <v>12237</v>
+      </c>
+      <c r="D7" s="58">
+        <v>14992</v>
+      </c>
+      <c r="E7" s="58">
+        <v>17132</v>
+      </c>
+      <c r="F7" s="58">
+        <v>18904</v>
+      </c>
+      <c r="G7" s="58">
+        <v>21655</v>
+      </c>
+      <c r="H7" s="58">
+        <v>24066</v>
+      </c>
+      <c r="I7" s="58">
+        <v>26052</v>
+      </c>
+      <c r="J7" s="58">
+        <v>28101</v>
+      </c>
+      <c r="K7" s="58">
+        <v>31373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <v>638594</v>
       </c>
-      <c r="B8" s="67">
-        <v>10734</v>
-      </c>
-      <c r="C8" s="67">
-        <v>49</v>
-      </c>
-      <c r="D8" s="67">
-        <v>1835</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="58">
+        <v>10788</v>
+      </c>
+      <c r="C8" s="58">
+        <v>13361</v>
+      </c>
+      <c r="D8" s="58">
+        <v>16166</v>
+      </c>
+      <c r="E8" s="58">
+        <v>17654</v>
+      </c>
+      <c r="F8" s="58">
+        <v>19933</v>
+      </c>
+      <c r="G8" s="58">
+        <v>22094</v>
+      </c>
+      <c r="H8" s="58">
+        <v>24847</v>
+      </c>
+      <c r="I8" s="58">
+        <v>26750</v>
+      </c>
+      <c r="J8" s="58">
+        <v>29270</v>
+      </c>
+      <c r="K8" s="58">
+        <v>31925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>66341</v>
       </c>
-      <c r="B9" s="67">
-        <v>10047</v>
-      </c>
-      <c r="C9" s="67">
-        <v>48</v>
-      </c>
-      <c r="D9" s="67">
-        <v>1801</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>10074</v>
+      </c>
+      <c r="C9" s="58">
+        <v>12427</v>
+      </c>
+      <c r="D9" s="58">
+        <v>15474</v>
+      </c>
+      <c r="E9" s="58">
+        <v>17191</v>
+      </c>
+      <c r="F9" s="58">
+        <v>19651</v>
+      </c>
+      <c r="G9" s="58">
+        <v>21945</v>
+      </c>
+      <c r="H9" s="58">
+        <v>24098</v>
+      </c>
+      <c r="I9" s="58">
+        <v>26388</v>
+      </c>
+      <c r="J9" s="58">
+        <v>28228</v>
+      </c>
+      <c r="K9" s="58">
+        <v>31583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <v>-23745809</v>
       </c>
-      <c r="B10" s="67">
-        <v>10816</v>
-      </c>
-      <c r="C10" s="67">
-        <v>46</v>
-      </c>
-      <c r="D10" s="67">
-        <v>2359</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="58">
+        <v>10275</v>
+      </c>
+      <c r="C10" s="58">
+        <v>13278</v>
+      </c>
+      <c r="D10" s="58">
+        <v>14497</v>
+      </c>
+      <c r="E10" s="58">
+        <v>17866</v>
+      </c>
+      <c r="F10" s="58">
+        <v>20022</v>
+      </c>
+      <c r="G10" s="58">
+        <v>21674</v>
+      </c>
+      <c r="H10" s="58">
+        <v>23784</v>
+      </c>
+      <c r="I10" s="58">
+        <v>26014</v>
+      </c>
+      <c r="J10" s="58">
+        <v>28829</v>
+      </c>
+      <c r="K10" s="58">
+        <v>30758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <v>1548590</v>
       </c>
-      <c r="B11" s="67">
-        <v>10325</v>
-      </c>
-      <c r="C11" s="67">
-        <v>46</v>
-      </c>
-      <c r="D11" s="67">
-        <v>1975</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="B11" s="58">
+        <v>10571</v>
+      </c>
+      <c r="C11" s="58">
+        <v>12825</v>
+      </c>
+      <c r="D11" s="58">
+        <v>15553</v>
+      </c>
+      <c r="E11" s="58">
+        <v>17501</v>
+      </c>
+      <c r="F11" s="58">
+        <v>20235</v>
+      </c>
+      <c r="G11" s="58">
+        <v>22381</v>
+      </c>
+      <c r="H11" s="58">
+        <v>23996</v>
+      </c>
+      <c r="I11" s="58">
+        <v>27271</v>
+      </c>
+      <c r="J11" s="58">
+        <v>28704</v>
+      </c>
+      <c r="K11" s="58">
+        <v>30887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="68">
-        <f>AVERAGE(B2:B11)</f>
-        <v>10335.1</v>
-      </c>
-      <c r="C12" s="68">
-        <f>AVERAGE(C2:C11)</f>
-        <v>47.8</v>
-      </c>
-      <c r="D12" s="68">
-        <f>AVERAGE(D2:D11)</f>
-        <v>1911.7</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H19" s="51"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H20" s="51"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="J21" s="29"/>
-    </row>
+      <c r="B12" s="59">
+        <f t="shared" ref="B12:F12" si="0">AVERAGE(B2:B11)</f>
+        <v>10521</v>
+      </c>
+      <c r="C12" s="59">
+        <f t="shared" si="0"/>
+        <v>13014.4</v>
+      </c>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>15276.9</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" si="0"/>
+        <v>17537.900000000001</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="0"/>
+        <v>19770.3</v>
+      </c>
+      <c r="G12" s="59">
+        <f>AVERAGE(G2:G11)</f>
+        <v>22086.2</v>
+      </c>
+      <c r="H12" s="59">
+        <f>AVERAGE(H2:H11)</f>
+        <v>24168.1</v>
+      </c>
+      <c r="I12" s="59">
+        <f>AVERAGE(I2:I11)</f>
+        <v>26692.1</v>
+      </c>
+      <c r="J12" s="62">
+        <f>AVERAGE(J2:J11)</f>
+        <v>28797.9</v>
+      </c>
+      <c r="K12" s="62">
+        <f>AVERAGE(K2:K11)</f>
+        <v>31252.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="64">
+        <f>B12/B1</f>
+        <v>52.604999999999997</v>
+      </c>
+      <c r="C13" s="64">
+        <f t="shared" ref="C13:K13" si="1">C12/C1</f>
+        <v>52.057600000000001</v>
+      </c>
+      <c r="D13" s="64">
+        <f t="shared" si="1"/>
+        <v>50.923000000000002</v>
+      </c>
+      <c r="E13" s="64">
+        <f t="shared" si="1"/>
+        <v>50.108285714285721</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="1"/>
+        <v>49.425750000000001</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>49.080444444444446</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" si="1"/>
+        <v>48.336199999999998</v>
+      </c>
+      <c r="I13" s="64">
+        <f t="shared" si="1"/>
+        <v>48.531090909090906</v>
+      </c>
+      <c r="J13" s="64">
+        <f t="shared" si="1"/>
+        <v>47.996500000000005</v>
+      </c>
+      <c r="K13" s="64">
+        <f t="shared" si="1"/>
+        <v>48.080461538461535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70602B1F-3AE0-4CEA-A784-69A0861E4F09}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5531CD-8C97-4920-AA5A-CD047036E60F}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="56">
+        <v>200</v>
+      </c>
+      <c r="C1" s="56">
+        <v>250</v>
+      </c>
+      <c r="D1" s="56">
+        <v>300</v>
+      </c>
+      <c r="E1" s="56">
+        <v>350</v>
+      </c>
+      <c r="F1" s="56">
+        <v>400</v>
+      </c>
+      <c r="G1" s="56">
+        <v>450</v>
+      </c>
+      <c r="H1" s="61">
+        <v>500</v>
+      </c>
+      <c r="I1" s="61">
+        <v>550</v>
+      </c>
+      <c r="J1" s="61">
+        <v>600</v>
+      </c>
+      <c r="K1" s="61">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>32764</v>
       </c>
-      <c r="B2" s="67">
-        <v>10418</v>
-      </c>
-      <c r="C2" s="67">
-        <v>49</v>
-      </c>
-      <c r="D2" s="67">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="58">
+        <v>2332</v>
+      </c>
+      <c r="C2" s="58">
+        <v>2196</v>
+      </c>
+      <c r="D2" s="58">
+        <v>2370</v>
+      </c>
+      <c r="E2" s="58">
+        <v>2847</v>
+      </c>
+      <c r="F2" s="58">
+        <v>3039</v>
+      </c>
+      <c r="G2" s="58">
+        <v>3239</v>
+      </c>
+      <c r="H2" s="58">
+        <v>3516</v>
+      </c>
+      <c r="I2" s="58">
+        <v>3831</v>
+      </c>
+      <c r="J2" s="58">
+        <v>4001</v>
+      </c>
+      <c r="K2" s="58">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <v>230800</v>
       </c>
-      <c r="B3" s="67">
-        <v>10934</v>
-      </c>
-      <c r="C3" s="67">
-        <v>50</v>
-      </c>
-      <c r="D3" s="67">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="58">
+        <v>2165</v>
+      </c>
+      <c r="C3" s="58">
+        <v>2101</v>
+      </c>
+      <c r="D3" s="58">
+        <v>2568</v>
+      </c>
+      <c r="E3" s="58">
+        <v>2828</v>
+      </c>
+      <c r="F3" s="58">
+        <v>2985</v>
+      </c>
+      <c r="G3" s="58">
+        <v>3235</v>
+      </c>
+      <c r="H3" s="58">
+        <v>3459</v>
+      </c>
+      <c r="I3" s="58">
+        <v>3979</v>
+      </c>
+      <c r="J3" s="58">
+        <v>4204</v>
+      </c>
+      <c r="K3" s="58">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>351990</v>
       </c>
-      <c r="B4" s="67">
-        <v>10228</v>
-      </c>
-      <c r="C4" s="67">
-        <v>47</v>
-      </c>
-      <c r="D4" s="67">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="58">
+        <v>1713</v>
+      </c>
+      <c r="C4" s="58">
+        <v>2523</v>
+      </c>
+      <c r="D4" s="58">
+        <v>2535</v>
+      </c>
+      <c r="E4" s="58">
+        <v>2810</v>
+      </c>
+      <c r="F4" s="58">
+        <v>2880</v>
+      </c>
+      <c r="G4" s="58">
+        <v>3230</v>
+      </c>
+      <c r="H4" s="58">
+        <v>3522</v>
+      </c>
+      <c r="I4" s="58">
+        <v>3834</v>
+      </c>
+      <c r="J4" s="58">
+        <v>3992</v>
+      </c>
+      <c r="K4" s="58">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>99711</v>
       </c>
-      <c r="B5" s="67">
-        <v>10123</v>
-      </c>
-      <c r="C5" s="67">
-        <v>49</v>
-      </c>
-      <c r="D5" s="67">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="58">
+        <v>1852</v>
+      </c>
+      <c r="C5" s="58">
+        <v>2205</v>
+      </c>
+      <c r="D5" s="58">
+        <v>2649</v>
+      </c>
+      <c r="E5" s="58">
+        <v>2772</v>
+      </c>
+      <c r="F5" s="58">
+        <v>2950</v>
+      </c>
+      <c r="G5" s="58">
+        <v>3201</v>
+      </c>
+      <c r="H5" s="58">
+        <v>3712</v>
+      </c>
+      <c r="I5" s="58">
+        <v>3665</v>
+      </c>
+      <c r="J5" s="58">
+        <v>4094</v>
+      </c>
+      <c r="K5" s="58">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>479267</v>
       </c>
-      <c r="B6" s="67">
-        <v>10283</v>
-      </c>
-      <c r="C6" s="67">
-        <v>51</v>
-      </c>
-      <c r="D6" s="67">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="58">
+        <v>2127</v>
+      </c>
+      <c r="C6" s="58">
+        <v>2311</v>
+      </c>
+      <c r="D6" s="58">
+        <v>2580</v>
+      </c>
+      <c r="E6" s="58">
+        <v>2690</v>
+      </c>
+      <c r="F6" s="58">
+        <v>3083</v>
+      </c>
+      <c r="G6" s="58">
+        <v>3092</v>
+      </c>
+      <c r="H6" s="58">
+        <v>3646</v>
+      </c>
+      <c r="I6" s="58">
+        <v>3743</v>
+      </c>
+      <c r="J6" s="58">
+        <v>4060</v>
+      </c>
+      <c r="K6" s="58">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <v>320254</v>
       </c>
-      <c r="B7" s="67">
-        <v>10586</v>
-      </c>
-      <c r="C7" s="67">
-        <v>49</v>
-      </c>
-      <c r="D7" s="67">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
+        <v>1701</v>
+      </c>
+      <c r="C7" s="58">
+        <v>1993</v>
+      </c>
+      <c r="D7" s="58">
+        <v>2356</v>
+      </c>
+      <c r="E7" s="58">
+        <v>2779</v>
+      </c>
+      <c r="F7" s="58">
+        <v>2745</v>
+      </c>
+      <c r="G7" s="58">
+        <v>2976</v>
+      </c>
+      <c r="H7" s="58">
+        <v>3521</v>
+      </c>
+      <c r="I7" s="58">
+        <v>3627</v>
+      </c>
+      <c r="J7" s="58">
+        <v>4001</v>
+      </c>
+      <c r="K7" s="58">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <v>638594</v>
       </c>
-      <c r="B8" s="67">
-        <v>10961</v>
-      </c>
-      <c r="C8" s="67">
-        <v>53</v>
-      </c>
-      <c r="D8" s="67">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="58">
+        <v>1928</v>
+      </c>
+      <c r="C8" s="58">
+        <v>2170</v>
+      </c>
+      <c r="D8" s="58">
+        <v>2653</v>
+      </c>
+      <c r="E8" s="58">
+        <v>2595</v>
+      </c>
+      <c r="F8" s="58">
+        <v>3003</v>
+      </c>
+      <c r="G8" s="58">
+        <v>3131</v>
+      </c>
+      <c r="H8" s="58">
+        <v>3465</v>
+      </c>
+      <c r="I8" s="58">
+        <v>3886</v>
+      </c>
+      <c r="J8" s="58">
+        <v>4078</v>
+      </c>
+      <c r="K8" s="58">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>66341</v>
       </c>
-      <c r="B9" s="67">
-        <v>10242</v>
-      </c>
-      <c r="C9" s="67">
-        <v>50</v>
-      </c>
-      <c r="D9" s="67">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>1660</v>
+      </c>
+      <c r="C9" s="58">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="58">
+        <v>2627</v>
+      </c>
+      <c r="E9" s="58">
+        <v>2689</v>
+      </c>
+      <c r="F9" s="58">
+        <v>3154</v>
+      </c>
+      <c r="G9" s="58">
+        <v>3320</v>
+      </c>
+      <c r="H9" s="58">
+        <v>3405</v>
+      </c>
+      <c r="I9" s="58">
+        <v>3773</v>
+      </c>
+      <c r="J9" s="58">
+        <v>4130</v>
+      </c>
+      <c r="K9" s="58">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <v>-23745809</v>
       </c>
-      <c r="B10" s="67">
-        <v>10165</v>
-      </c>
-      <c r="C10" s="67">
-        <v>50</v>
-      </c>
-      <c r="D10" s="67">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="58">
+        <v>1826</v>
+      </c>
+      <c r="C10" s="58">
+        <v>2210</v>
+      </c>
+      <c r="D10" s="58">
+        <v>2362</v>
+      </c>
+      <c r="E10" s="58">
+        <v>2708</v>
+      </c>
+      <c r="F10" s="58">
+        <v>2963</v>
+      </c>
+      <c r="G10" s="58">
+        <v>3182</v>
+      </c>
+      <c r="H10" s="58">
+        <v>3465</v>
+      </c>
+      <c r="I10" s="58">
+        <v>3751</v>
+      </c>
+      <c r="J10" s="58">
+        <v>4030</v>
+      </c>
+      <c r="K10" s="58">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <v>1548590</v>
       </c>
-      <c r="B11" s="67">
-        <v>10114</v>
-      </c>
-      <c r="C11" s="67">
-        <v>46</v>
-      </c>
-      <c r="D11" s="67">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="B11" s="58">
+        <v>2112</v>
+      </c>
+      <c r="C11" s="58">
+        <v>2223</v>
+      </c>
+      <c r="D11" s="58">
+        <v>2639</v>
+      </c>
+      <c r="E11" s="58">
+        <v>2941</v>
+      </c>
+      <c r="F11" s="58">
+        <v>2831</v>
+      </c>
+      <c r="G11" s="58">
+        <v>3336</v>
+      </c>
+      <c r="H11" s="58">
+        <v>3451</v>
+      </c>
+      <c r="I11" s="58">
+        <v>3819</v>
+      </c>
+      <c r="J11" s="58">
+        <v>4089</v>
+      </c>
+      <c r="K11" s="58">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="68">
-        <f>AVERAGE(B2:B11)</f>
-        <v>10405.4</v>
-      </c>
-      <c r="C12" s="68">
-        <f>AVERAGE(C2:C11)</f>
-        <v>49.4</v>
-      </c>
-      <c r="D12" s="68">
-        <f>AVERAGE(D2:D11)</f>
-        <v>1926.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B12" s="59">
+        <f t="shared" ref="B12:F12" si="0">AVERAGE(B2:B11)</f>
+        <v>1941.6</v>
+      </c>
+      <c r="C12" s="59">
+        <f t="shared" si="0"/>
+        <v>2195.6</v>
+      </c>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>2533.9</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" si="0"/>
+        <v>2765.9</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="0"/>
+        <v>2963.3</v>
+      </c>
+      <c r="G12" s="59">
+        <f>AVERAGE(G2:G11)</f>
+        <v>3194.2</v>
+      </c>
+      <c r="H12" s="59">
+        <f>AVERAGE(H2:H11)</f>
+        <v>3516.2</v>
+      </c>
+      <c r="I12" s="59">
+        <f>AVERAGE(I2:I11)</f>
+        <v>3790.8</v>
+      </c>
+      <c r="J12" s="62">
+        <f>AVERAGE(J2:J11)</f>
+        <v>4067.9</v>
+      </c>
+      <c r="K12" s="62">
+        <f>AVERAGE(K2:K11)</f>
+        <v>4329.1000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="64">
+        <f>B12/B1</f>
+        <v>9.7080000000000002</v>
+      </c>
+      <c r="C13" s="64">
+        <f t="shared" ref="C13:K13" si="1">C12/C1</f>
+        <v>8.7823999999999991</v>
+      </c>
+      <c r="D13" s="64">
+        <f t="shared" si="1"/>
+        <v>8.4463333333333335</v>
+      </c>
+      <c r="E13" s="64">
+        <f t="shared" si="1"/>
+        <v>7.902571428571429</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="1"/>
+        <v>7.4082500000000007</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>7.0982222222222218</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" si="1"/>
+        <v>7.0324</v>
+      </c>
+      <c r="I13" s="64">
+        <f t="shared" si="1"/>
+        <v>6.8923636363636369</v>
+      </c>
+      <c r="J13" s="64">
+        <f t="shared" si="1"/>
+        <v>6.7798333333333334</v>
+      </c>
+      <c r="K13" s="64">
+        <f t="shared" si="1"/>
+        <v>6.6601538461538468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3740,6 +4297,448 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F73F4-4FE3-4791-9DF7-29A7BFDBE6A0}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="69"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="56">
+        <v>32764</v>
+      </c>
+      <c r="B2" s="67">
+        <v>10030</v>
+      </c>
+      <c r="C2" s="67">
+        <v>48</v>
+      </c>
+      <c r="D2" s="67">
+        <v>2047</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>230800</v>
+      </c>
+      <c r="B3" s="67">
+        <v>10441</v>
+      </c>
+      <c r="C3" s="67">
+        <v>48</v>
+      </c>
+      <c r="D3" s="67">
+        <v>1842</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
+        <v>351990</v>
+      </c>
+      <c r="B4" s="67">
+        <v>10388</v>
+      </c>
+      <c r="C4" s="67">
+        <v>49</v>
+      </c>
+      <c r="D4" s="67">
+        <v>1792</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>99711</v>
+      </c>
+      <c r="B5" s="67">
+        <v>9831</v>
+      </c>
+      <c r="C5" s="67">
+        <v>48</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1720</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>479267</v>
+      </c>
+      <c r="B6" s="67">
+        <v>10628</v>
+      </c>
+      <c r="C6" s="67">
+        <v>47</v>
+      </c>
+      <c r="D6" s="67">
+        <v>2109</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>320254</v>
+      </c>
+      <c r="B7" s="67">
+        <v>10111</v>
+      </c>
+      <c r="C7" s="67">
+        <v>49</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1637</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
+        <v>638594</v>
+      </c>
+      <c r="B8" s="67">
+        <v>10734</v>
+      </c>
+      <c r="C8" s="67">
+        <v>49</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1835</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="56">
+        <v>66341</v>
+      </c>
+      <c r="B9" s="67">
+        <v>10047</v>
+      </c>
+      <c r="C9" s="67">
+        <v>48</v>
+      </c>
+      <c r="D9" s="67">
+        <v>1801</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="56">
+        <v>-23745809</v>
+      </c>
+      <c r="B10" s="67">
+        <v>10816</v>
+      </c>
+      <c r="C10" s="67">
+        <v>46</v>
+      </c>
+      <c r="D10" s="67">
+        <v>2359</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>1548590</v>
+      </c>
+      <c r="B11" s="67">
+        <v>10325</v>
+      </c>
+      <c r="C11" s="67">
+        <v>46</v>
+      </c>
+      <c r="D11" s="67">
+        <v>1975</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="68">
+        <f>AVERAGE(B2:B11)</f>
+        <v>10335.1</v>
+      </c>
+      <c r="C12" s="68">
+        <f>AVERAGE(C2:C11)</f>
+        <v>47.8</v>
+      </c>
+      <c r="D12" s="68">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1911.7</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="51"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="51"/>
+      <c r="M20" s="51"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70602B1F-3AE0-4CEA-A784-69A0861E4F09}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="56">
+        <v>32764</v>
+      </c>
+      <c r="B2" s="67">
+        <v>10418</v>
+      </c>
+      <c r="C2" s="67">
+        <v>49</v>
+      </c>
+      <c r="D2" s="67">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>230800</v>
+      </c>
+      <c r="B3" s="67">
+        <v>10934</v>
+      </c>
+      <c r="C3" s="67">
+        <v>50</v>
+      </c>
+      <c r="D3" s="67">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
+        <v>351990</v>
+      </c>
+      <c r="B4" s="67">
+        <v>10228</v>
+      </c>
+      <c r="C4" s="67">
+        <v>47</v>
+      </c>
+      <c r="D4" s="67">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>99711</v>
+      </c>
+      <c r="B5" s="67">
+        <v>10123</v>
+      </c>
+      <c r="C5" s="67">
+        <v>49</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>479267</v>
+      </c>
+      <c r="B6" s="67">
+        <v>10283</v>
+      </c>
+      <c r="C6" s="67">
+        <v>51</v>
+      </c>
+      <c r="D6" s="67">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>320254</v>
+      </c>
+      <c r="B7" s="67">
+        <v>10586</v>
+      </c>
+      <c r="C7" s="67">
+        <v>49</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
+        <v>638594</v>
+      </c>
+      <c r="B8" s="67">
+        <v>10961</v>
+      </c>
+      <c r="C8" s="67">
+        <v>53</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="56">
+        <v>66341</v>
+      </c>
+      <c r="B9" s="67">
+        <v>10242</v>
+      </c>
+      <c r="C9" s="67">
+        <v>50</v>
+      </c>
+      <c r="D9" s="67">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="56">
+        <v>-23745809</v>
+      </c>
+      <c r="B10" s="67">
+        <v>10165</v>
+      </c>
+      <c r="C10" s="67">
+        <v>50</v>
+      </c>
+      <c r="D10" s="67">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>1548590</v>
+      </c>
+      <c r="B11" s="67">
+        <v>10114</v>
+      </c>
+      <c r="C11" s="67">
+        <v>46</v>
+      </c>
+      <c r="D11" s="67">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="68">
+        <f>AVERAGE(B2:B11)</f>
+        <v>10405.4</v>
+      </c>
+      <c r="C12" s="68">
+        <f>AVERAGE(C2:C11)</f>
+        <v>49.4</v>
+      </c>
+      <c r="D12" s="68">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1926.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -3948,7 +4947,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>5161</v>
       </c>
@@ -3976,7 +4975,7 @@
         <v>10813</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>36359</v>
       </c>
@@ -3990,7 +4989,7 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>55450</v>
       </c>
@@ -4004,7 +5003,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>15708</v>
       </c>
@@ -4018,7 +5017,7 @@
         <v>10979</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>75501</v>
       </c>
@@ -4032,7 +5031,7 @@
         <v>10617</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>50451</v>
       </c>
@@ -4046,7 +5045,7 @@
         <v>10288</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>100600</v>
       </c>
@@ -4060,7 +5059,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>10451</v>
       </c>
@@ -4074,7 +5073,7 @@
         <v>10235</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>25676806</v>
       </c>
@@ -4088,7 +5087,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>243956</v>
       </c>
@@ -4102,7 +5101,7 @@
         <v>11280</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>3</v>
       </c>
@@ -4119,7 +5118,7 @@
         <v>10638.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="29"/>
     </row>
@@ -4511,44 +5510,44 @@
     <row r="23" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="24" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="25" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" x14ac:dyDescent="0.2"/>
-    <row r="27" x14ac:dyDescent="0.2"/>
-    <row r="31" x14ac:dyDescent="0.2"/>
-    <row r="32" x14ac:dyDescent="0.2"/>
-    <row r="33" x14ac:dyDescent="0.2"/>
-    <row r="34" x14ac:dyDescent="0.2"/>
-    <row r="35" x14ac:dyDescent="0.2"/>
-    <row r="36" x14ac:dyDescent="0.2"/>
-    <row r="37" x14ac:dyDescent="0.2"/>
-    <row r="38" x14ac:dyDescent="0.2"/>
-    <row r="39" x14ac:dyDescent="0.2"/>
-    <row r="40" x14ac:dyDescent="0.2"/>
-    <row r="41" x14ac:dyDescent="0.2"/>
-    <row r="42" x14ac:dyDescent="0.2"/>
-    <row r="46" x14ac:dyDescent="0.2"/>
-    <row r="47" x14ac:dyDescent="0.2"/>
-    <row r="48" x14ac:dyDescent="0.2"/>
-    <row r="49" x14ac:dyDescent="0.2"/>
-    <row r="50" x14ac:dyDescent="0.2"/>
-    <row r="51" x14ac:dyDescent="0.2"/>
-    <row r="52" x14ac:dyDescent="0.2"/>
-    <row r="53" x14ac:dyDescent="0.2"/>
-    <row r="54" x14ac:dyDescent="0.2"/>
-    <row r="55" x14ac:dyDescent="0.2"/>
-    <row r="56" x14ac:dyDescent="0.2"/>
-    <row r="57" x14ac:dyDescent="0.2"/>
-    <row r="61" x14ac:dyDescent="0.2"/>
-    <row r="62" x14ac:dyDescent="0.2"/>
-    <row r="63" x14ac:dyDescent="0.2"/>
-    <row r="64" x14ac:dyDescent="0.2"/>
-    <row r="65" x14ac:dyDescent="0.2"/>
-    <row r="66" x14ac:dyDescent="0.2"/>
-    <row r="67" x14ac:dyDescent="0.2"/>
-    <row r="68" x14ac:dyDescent="0.2"/>
-    <row r="69" x14ac:dyDescent="0.2"/>
-    <row r="70" x14ac:dyDescent="0.2"/>
-    <row r="71" x14ac:dyDescent="0.2"/>
-    <row r="72" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4559,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CF5423-FDD1-45B6-BD66-BB617997E646}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5035,51 +6034,51 @@
         <v>3</v>
       </c>
       <c r="B12" s="37">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:M12" si="0">AVERAGE(B2:B11)</f>
         <v>13514.9</v>
       </c>
       <c r="C12" s="37">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>10335.1</v>
       </c>
       <c r="D12" s="37">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>10369.9</v>
       </c>
       <c r="E12" s="37">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>13448.9</v>
       </c>
       <c r="F12" s="37">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>10399.200000000001</v>
       </c>
       <c r="G12" s="37">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>10355.5</v>
       </c>
       <c r="H12" s="37">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>13573</v>
       </c>
       <c r="I12" s="38">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>10347.799999999999</v>
       </c>
       <c r="J12" s="39">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>10033.4</v>
       </c>
       <c r="K12" s="40">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>14044.8</v>
       </c>
       <c r="L12" s="37">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>10418.5</v>
       </c>
       <c r="M12" s="37">
-        <f>AVERAGE(M2:M11)</f>
+        <f t="shared" si="0"/>
         <v>10209.5</v>
       </c>
     </row>
@@ -5555,51 +6554,51 @@
         <v>3</v>
       </c>
       <c r="B12" s="37">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:M12" si="0">AVERAGE(B2:B11)</f>
         <v>10350.9</v>
       </c>
       <c r="C12" s="38">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>10159.200000000001</v>
       </c>
       <c r="D12" s="39">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>9953.4</v>
       </c>
       <c r="E12" s="40">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>10356.5</v>
       </c>
       <c r="F12" s="37">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>10038</v>
       </c>
       <c r="G12" s="37">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>10203.4</v>
       </c>
       <c r="H12" s="37">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>10339.6</v>
       </c>
       <c r="I12" s="38">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>10021.299999999999</v>
       </c>
       <c r="J12" s="38">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>10549.9</v>
       </c>
       <c r="K12" s="37">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>10267</v>
       </c>
       <c r="L12" s="37">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>9988.7000000000007</v>
       </c>
       <c r="M12" s="37">
-        <f>AVERAGE(M2:M11)</f>
+        <f t="shared" si="0"/>
         <v>10831.7</v>
       </c>
     </row>
@@ -6075,51 +7074,51 @@
         <v>3</v>
       </c>
       <c r="B12" s="37">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:M12" si="0">AVERAGE(B2:B11)</f>
         <v>9876.2000000000007</v>
       </c>
       <c r="C12" s="38">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>9893.1</v>
       </c>
       <c r="D12" s="37">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>9894.2999999999993</v>
       </c>
       <c r="E12" s="40">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>9886.5</v>
       </c>
       <c r="F12" s="39">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>9823.2999999999993</v>
       </c>
       <c r="G12" s="37">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>9864.7000000000007</v>
       </c>
       <c r="H12" s="37">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>9905.7999999999993</v>
       </c>
       <c r="I12" s="38">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>9884.7000000000007</v>
       </c>
       <c r="J12" s="38">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>9846.1</v>
       </c>
       <c r="K12" s="37">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>9848.1</v>
       </c>
       <c r="L12" s="37">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>9895.2999999999993</v>
       </c>
       <c r="M12" s="37">
-        <f>AVERAGE(M2:M11)</f>
+        <f t="shared" si="0"/>
         <v>9857.6</v>
       </c>
     </row>
@@ -6134,7 +7133,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6562,52 +7561,53 @@
         <v>3</v>
       </c>
       <c r="B12" s="37">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:L12" si="0">AVERAGE(B2:B11)</f>
         <v>11804.3</v>
       </c>
       <c r="C12" s="37">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>10855</v>
       </c>
       <c r="D12" s="37">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>10305.299999999999</v>
       </c>
       <c r="E12" s="40">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>9918.7999999999993</v>
       </c>
       <c r="F12" s="40">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>9672.7999999999993</v>
       </c>
       <c r="G12" s="38">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>9371.9</v>
       </c>
       <c r="H12" s="42">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>9313.7999999999993</v>
       </c>
       <c r="I12" s="43">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>9351</v>
       </c>
       <c r="J12" s="39">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>9302.2999999999993</v>
       </c>
       <c r="K12" s="40">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>9356.6</v>
       </c>
       <c r="L12" s="37">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>10693.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>